--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2355092.322277416</v>
+        <v>-2357757.732826432</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9221440.442446901</v>
+        <v>9221440.442446897</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>37.20662970553738</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>19.56274131285412</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34.11888750173132</v>
+      </c>
+      <c r="I3" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
       <c r="Y3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -865,22 +865,22 @@
         <v>39.58387696184059</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>30.33058396382595</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>39.58387696184059</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>30.33058396382595</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1029,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W6" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>39.58387696184059</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1096,7 +1096,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>30.33058396382595</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>37.20662970553738</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G9" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1260,25 +1260,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
+        <v>24.5704967621155</v>
+      </c>
+      <c r="X10" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>281.7649326184674</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.082705318338</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>296.2563973803192</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>112.8560859017321</v>
       </c>
       <c r="T11" t="n">
-        <v>10.2078056465555</v>
+        <v>204.6226586226522</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0080503320927</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0980181947725</v>
+        <v>159.5871667597758</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.52397011385796</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>92.17897396269613</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>191.0274475752769</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.8574826379858</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2157769293808</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.7776928649861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1622,7 @@
         <v>410.9673268504844</v>
       </c>
       <c r="H14" t="n">
-        <v>295.0747776464138</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>43.33496992146235</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>21.06453909287537</v>
+        <v>333.6002666317631</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.046263386139</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.9368795899061</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>23.42483561596883</v>
+        <v>22.2242779034801</v>
       </c>
       <c r="T16" t="n">
         <v>219.6363484556427</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.32657882015206</v>
+        <v>62.32657882015197</v>
       </c>
       <c r="T17" t="n">
         <v>156.2172691342562</v>
@@ -1901,7 +1901,7 @@
         <v>203.0984998092974</v>
       </c>
       <c r="V17" t="n">
-        <v>279.8519382247679</v>
+        <v>279.8519382247678</v>
       </c>
       <c r="W17" t="n">
         <v>301.3406484720459</v>
@@ -1910,7 +1910,7 @@
         <v>321.8307804331019</v>
       </c>
       <c r="Y17" t="n">
-        <v>338.3376184106866</v>
+        <v>338.3376184106865</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>131.9316599365702</v>
       </c>
       <c r="C19" t="n">
-        <v>119.3465008532608</v>
+        <v>119.346500853262</v>
       </c>
       <c r="D19" t="n">
         <v>100.7151527728453</v>
@@ -2062,7 +2062,7 @@
         <v>204.2373230784609</v>
       </c>
       <c r="W19" t="n">
-        <v>238.6226780912249</v>
+        <v>238.6226780912239</v>
       </c>
       <c r="X19" t="n">
         <v>177.8093351436701</v>
@@ -2138,7 +2138,7 @@
         <v>203.0984998092974</v>
       </c>
       <c r="V20" t="n">
-        <v>279.8519382247679</v>
+        <v>279.8519382247678</v>
       </c>
       <c r="W20" t="n">
         <v>301.3406484720459</v>
@@ -2147,7 +2147,7 @@
         <v>321.8307804331019</v>
       </c>
       <c r="Y20" t="n">
-        <v>338.3376184106866</v>
+        <v>338.3376184106865</v>
       </c>
     </row>
     <row r="21">
@@ -2287,7 +2287,7 @@
         <v>41.95156932186303</v>
       </c>
       <c r="S22" t="n">
-        <v>142.2251821649061</v>
+        <v>142.2251821649058</v>
       </c>
       <c r="T22" t="n">
         <v>171.7360282102756</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.32657882015197</v>
+        <v>62.32657882015199</v>
       </c>
       <c r="T23" t="n">
         <v>156.2172691342562</v>
@@ -2375,16 +2375,16 @@
         <v>203.0984998092974</v>
       </c>
       <c r="V23" t="n">
-        <v>279.8519382247679</v>
+        <v>279.8519382247678</v>
       </c>
       <c r="W23" t="n">
-        <v>301.3406484720459</v>
+        <v>301.340648472047</v>
       </c>
       <c r="X23" t="n">
         <v>321.8307804331019</v>
       </c>
       <c r="Y23" t="n">
-        <v>338.3376184106866</v>
+        <v>338.3376184106865</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.8325163776689</v>
       </c>
       <c r="I24" t="n">
-        <v>9.531517641698244</v>
+        <v>9.531517641698272</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>97.036559344539</v>
       </c>
       <c r="I25" t="n">
-        <v>49.06724162340363</v>
+        <v>49.06724162340364</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95156932186303</v>
+        <v>41.95156932186306</v>
       </c>
       <c r="S25" t="n">
         <v>142.2251821649061</v>
@@ -2536,7 +2536,7 @@
         <v>204.2373230784609</v>
       </c>
       <c r="W25" t="n">
-        <v>238.6226780912244</v>
+        <v>238.6226780912239</v>
       </c>
       <c r="X25" t="n">
         <v>177.8093351436701</v>
@@ -2612,7 +2612,7 @@
         <v>203.0984998092974</v>
       </c>
       <c r="V26" t="n">
-        <v>279.8519382247679</v>
+        <v>279.8519382247678</v>
       </c>
       <c r="W26" t="n">
         <v>301.3406484720459</v>
@@ -2621,7 +2621,7 @@
         <v>321.8307804331019</v>
       </c>
       <c r="Y26" t="n">
-        <v>338.3376184106866</v>
+        <v>338.3376184106865</v>
       </c>
     </row>
     <row r="27">
@@ -2728,7 +2728,7 @@
         <v>118.145943140772</v>
       </c>
       <c r="H28" t="n">
-        <v>97.036559344539</v>
+        <v>97.03655934453948</v>
       </c>
       <c r="I28" t="n">
         <v>49.06724162340363</v>
@@ -2770,7 +2770,7 @@
         <v>238.3126336944518</v>
       </c>
       <c r="V28" t="n">
-        <v>204.2373230784619</v>
+        <v>204.2373230784609</v>
       </c>
       <c r="W28" t="n">
         <v>238.6226780912239</v>
@@ -2843,13 +2843,13 @@
         <v>62.32657882015197</v>
       </c>
       <c r="T29" t="n">
-        <v>156.2172691342562</v>
+        <v>156.2172691342561</v>
       </c>
       <c r="U29" t="n">
         <v>203.0984998092974</v>
       </c>
       <c r="V29" t="n">
-        <v>279.8519382247679</v>
+        <v>279.8519382247678</v>
       </c>
       <c r="W29" t="n">
         <v>301.3406484720459</v>
@@ -2858,7 +2858,7 @@
         <v>321.8307804331019</v>
       </c>
       <c r="Y29" t="n">
-        <v>338.3376184106866</v>
+        <v>338.3376184106865</v>
       </c>
     </row>
     <row r="30">
@@ -2956,19 +2956,19 @@
         <v>100.7151527728453</v>
       </c>
       <c r="E31" t="n">
-        <v>98.53364240120212</v>
+        <v>98.5336424012021</v>
       </c>
       <c r="F31" t="n">
-        <v>97.5207277775651</v>
+        <v>97.52072777756418</v>
       </c>
       <c r="G31" t="n">
         <v>118.145943140772</v>
       </c>
       <c r="H31" t="n">
-        <v>97.036559344539</v>
+        <v>97.03655934453899</v>
       </c>
       <c r="I31" t="n">
-        <v>49.06724162340363</v>
+        <v>49.06724162340362</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95156932186303</v>
+        <v>41.951569321863</v>
       </c>
       <c r="S31" t="n">
         <v>142.2251821649061</v>
@@ -3035,13 +3035,13 @@
         <v>306.7827213753159</v>
       </c>
       <c r="E32" t="n">
-        <v>334.0300498268947</v>
+        <v>334.0300498268948</v>
       </c>
       <c r="F32" t="n">
         <v>358.9757254963444</v>
       </c>
       <c r="G32" t="n">
-        <v>363.0670066051173</v>
+        <v>363.0670066051174</v>
       </c>
       <c r="H32" t="n">
         <v>247.1744574010468</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.32657882015197</v>
+        <v>62.326578820152</v>
       </c>
       <c r="T32" t="n">
         <v>156.2172691342562</v>
@@ -3089,10 +3089,10 @@
         <v>279.8519382247679</v>
       </c>
       <c r="W32" t="n">
-        <v>301.3406484720459</v>
+        <v>301.340648472046</v>
       </c>
       <c r="X32" t="n">
-        <v>321.8307804331019</v>
+        <v>321.830780433102</v>
       </c>
       <c r="Y32" t="n">
         <v>338.3376184106866</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>131.9316599365702</v>
+        <v>131.9316599365703</v>
       </c>
       <c r="C34" t="n">
         <v>119.3465008532608</v>
@@ -3193,19 +3193,19 @@
         <v>100.7151527728453</v>
       </c>
       <c r="E34" t="n">
-        <v>98.53364240120212</v>
+        <v>98.53364240120214</v>
       </c>
       <c r="F34" t="n">
-        <v>97.52072777756473</v>
+        <v>97.52072777756422</v>
       </c>
       <c r="G34" t="n">
         <v>118.145943140772</v>
       </c>
       <c r="H34" t="n">
-        <v>97.036559344539</v>
+        <v>97.03655934453903</v>
       </c>
       <c r="I34" t="n">
-        <v>49.06724162340363</v>
+        <v>49.06724162340367</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95156932186303</v>
+        <v>41.95156932186307</v>
       </c>
       <c r="S34" t="n">
         <v>142.2251821649061</v>
       </c>
       <c r="T34" t="n">
-        <v>171.7360282102756</v>
+        <v>171.7360282102757</v>
       </c>
       <c r="U34" t="n">
         <v>238.3126336944518</v>
       </c>
       <c r="V34" t="n">
-        <v>204.2373230784609</v>
+        <v>204.237323078461</v>
       </c>
       <c r="W34" t="n">
-        <v>238.6226780912239</v>
+        <v>238.622678091224</v>
       </c>
       <c r="X34" t="n">
         <v>177.8093351436701</v>
       </c>
       <c r="Y34" t="n">
-        <v>170.6843331067277</v>
+        <v>170.6843331067278</v>
       </c>
     </row>
     <row r="35">
@@ -3272,13 +3272,13 @@
         <v>306.7827213753159</v>
       </c>
       <c r="E35" t="n">
-        <v>334.0300498268947</v>
+        <v>334.0300498268948</v>
       </c>
       <c r="F35" t="n">
         <v>358.9757254963444</v>
       </c>
       <c r="G35" t="n">
-        <v>363.0670066051173</v>
+        <v>363.0670066051174</v>
       </c>
       <c r="H35" t="n">
         <v>247.1744574010468</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.32657882015197</v>
+        <v>62.326578820152</v>
       </c>
       <c r="T35" t="n">
         <v>156.2172691342562</v>
@@ -3326,10 +3326,10 @@
         <v>279.8519382247679</v>
       </c>
       <c r="W35" t="n">
-        <v>301.3406484720459</v>
+        <v>301.340648472046</v>
       </c>
       <c r="X35" t="n">
-        <v>321.8307804331019</v>
+        <v>321.830780433102</v>
       </c>
       <c r="Y35" t="n">
         <v>338.3376184106866</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>131.9316599365702</v>
+        <v>131.9316599365703</v>
       </c>
       <c r="C37" t="n">
         <v>119.3465008532608</v>
@@ -3430,19 +3430,19 @@
         <v>100.7151527728453</v>
       </c>
       <c r="E37" t="n">
-        <v>98.53364240120212</v>
+        <v>98.53364240120214</v>
       </c>
       <c r="F37" t="n">
-        <v>97.52072777756419</v>
+        <v>97.52072777756422</v>
       </c>
       <c r="G37" t="n">
         <v>118.145943140772</v>
       </c>
       <c r="H37" t="n">
-        <v>97.036559344539</v>
+        <v>97.03655934453903</v>
       </c>
       <c r="I37" t="n">
-        <v>49.06724162340363</v>
+        <v>49.06724162340366</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95156932186303</v>
+        <v>41.95156932186306</v>
       </c>
       <c r="S37" t="n">
         <v>142.2251821649061</v>
       </c>
       <c r="T37" t="n">
-        <v>171.7360282102756</v>
+        <v>171.7360282102757</v>
       </c>
       <c r="U37" t="n">
-        <v>238.3126336944518</v>
+        <v>238.3126336944519</v>
       </c>
       <c r="V37" t="n">
-        <v>204.2373230784609</v>
+        <v>204.237323078461</v>
       </c>
       <c r="W37" t="n">
-        <v>238.6226780912239</v>
+        <v>238.622678091224</v>
       </c>
       <c r="X37" t="n">
         <v>177.8093351436701</v>
       </c>
       <c r="Y37" t="n">
-        <v>170.6843331067277</v>
+        <v>170.6843331067278</v>
       </c>
     </row>
     <row r="38">
@@ -3554,13 +3554,13 @@
         <v>62.32657882015197</v>
       </c>
       <c r="T38" t="n">
-        <v>156.2172691342562</v>
+        <v>156.2172691342561</v>
       </c>
       <c r="U38" t="n">
         <v>203.0984998092974</v>
       </c>
       <c r="V38" t="n">
-        <v>279.8519382247679</v>
+        <v>279.8519382247678</v>
       </c>
       <c r="W38" t="n">
         <v>301.3406484720459</v>
@@ -3569,7 +3569,7 @@
         <v>321.8307804331019</v>
       </c>
       <c r="Y38" t="n">
-        <v>338.3376184106866</v>
+        <v>338.3376184106865</v>
       </c>
     </row>
     <row r="39">
@@ -3667,19 +3667,19 @@
         <v>100.7151527728453</v>
       </c>
       <c r="E40" t="n">
-        <v>98.53364240120212</v>
+        <v>98.5336424012021</v>
       </c>
       <c r="F40" t="n">
-        <v>97.52072777756419</v>
+        <v>97.52072777756418</v>
       </c>
       <c r="G40" t="n">
         <v>118.145943140772</v>
       </c>
       <c r="H40" t="n">
-        <v>97.036559344539</v>
+        <v>97.03655934453899</v>
       </c>
       <c r="I40" t="n">
-        <v>49.06724162340363</v>
+        <v>49.06724162340362</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95156932186303</v>
+        <v>41.951569321863</v>
       </c>
       <c r="S40" t="n">
         <v>142.2251821649061</v>
@@ -3746,13 +3746,13 @@
         <v>306.7827213753159</v>
       </c>
       <c r="E41" t="n">
-        <v>334.0300498268948</v>
+        <v>334.0300498268947</v>
       </c>
       <c r="F41" t="n">
         <v>358.9757254963444</v>
       </c>
       <c r="G41" t="n">
-        <v>363.0670066051174</v>
+        <v>363.0670066051173</v>
       </c>
       <c r="H41" t="n">
         <v>247.1744574010468</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.32657882015199</v>
+        <v>62.32657882015197</v>
       </c>
       <c r="T41" t="n">
         <v>156.2172691342562</v>
@@ -3797,16 +3797,16 @@
         <v>203.0984998092974</v>
       </c>
       <c r="V41" t="n">
-        <v>279.8519382247679</v>
+        <v>279.8519382247678</v>
       </c>
       <c r="W41" t="n">
-        <v>301.340648472046</v>
+        <v>301.3406484720459</v>
       </c>
       <c r="X41" t="n">
-        <v>321.830780433102</v>
+        <v>321.8307804331019</v>
       </c>
       <c r="Y41" t="n">
-        <v>338.3376184106866</v>
+        <v>338.3376184106865</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>131.9316599365703</v>
+        <v>131.9316599365702</v>
       </c>
       <c r="C43" t="n">
         <v>119.3465008532608</v>
@@ -3904,19 +3904,19 @@
         <v>100.7151527728453</v>
       </c>
       <c r="E43" t="n">
-        <v>98.53364240120214</v>
+        <v>98.53364240120212</v>
       </c>
       <c r="F43" t="n">
-        <v>97.52072777756422</v>
+        <v>97.52072777756419</v>
       </c>
       <c r="G43" t="n">
         <v>118.145943140772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.03655934453903</v>
+        <v>97.036559344539</v>
       </c>
       <c r="I43" t="n">
-        <v>49.06724162340366</v>
+        <v>49.06724162340363</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95156932186306</v>
+        <v>41.95156932186303</v>
       </c>
       <c r="S43" t="n">
         <v>142.2251821649061</v>
       </c>
       <c r="T43" t="n">
-        <v>171.7360282102757</v>
+        <v>171.7360282102756</v>
       </c>
       <c r="U43" t="n">
         <v>238.3126336944518</v>
       </c>
       <c r="V43" t="n">
-        <v>204.237323078461</v>
+        <v>204.2373230784609</v>
       </c>
       <c r="W43" t="n">
-        <v>238.622678091224</v>
+        <v>238.6226780912239</v>
       </c>
       <c r="X43" t="n">
         <v>177.8093351436701</v>
       </c>
       <c r="Y43" t="n">
-        <v>170.6843331067278</v>
+        <v>170.6843331067277</v>
       </c>
     </row>
     <row r="44">
@@ -4189,7 +4189,7 @@
         <v>171.7360282102757</v>
       </c>
       <c r="U46" t="n">
-        <v>238.3126336944519</v>
+        <v>238.3126336944518</v>
       </c>
       <c r="V46" t="n">
         <v>204.237323078461</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.2764642733967</v>
+        <v>138.5751630869036</v>
       </c>
       <c r="C2" t="n">
-        <v>68.2764642733967</v>
+        <v>138.5751630869036</v>
       </c>
       <c r="D2" t="n">
-        <v>68.2764642733967</v>
+        <v>138.5751630869036</v>
       </c>
       <c r="E2" t="n">
-        <v>68.2764642733967</v>
+        <v>98.59144898403436</v>
       </c>
       <c r="F2" t="n">
-        <v>30.69401002537914</v>
+        <v>58.60773488116507</v>
       </c>
       <c r="G2" t="n">
-        <v>15.2366994040306</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H2" t="n">
-        <v>15.2366994040306</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I2" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J2" t="n">
         <v>3.166710156947247</v>
@@ -4334,46 +4334,46 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L2" t="n">
+        <v>42.35474834916943</v>
+      </c>
+      <c r="M2" t="n">
         <v>81.54278654139161</v>
       </c>
-      <c r="M2" t="n">
-        <v>119.1474696551402</v>
-      </c>
       <c r="N2" t="n">
-        <v>158.3355078473624</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O2" t="n">
-        <v>158.3355078473624</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P2" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>108.260178376266</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S2" t="n">
-        <v>108.260178376266</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T2" t="n">
-        <v>108.260178376266</v>
+        <v>138.5751630869036</v>
       </c>
       <c r="U2" t="n">
-        <v>108.260178376266</v>
+        <v>138.5751630869036</v>
       </c>
       <c r="V2" t="n">
-        <v>108.260178376266</v>
+        <v>138.5751630869036</v>
       </c>
       <c r="W2" t="n">
-        <v>108.260178376266</v>
+        <v>138.5751630869036</v>
       </c>
       <c r="X2" t="n">
-        <v>108.260178376266</v>
+        <v>138.5751630869036</v>
       </c>
       <c r="Y2" t="n">
-        <v>108.260178376266</v>
+        <v>138.5751630869036</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.88827101547153</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C3" t="n">
+        <v>78.36807964162378</v>
+      </c>
+      <c r="D3" t="n">
+        <v>78.36807964162378</v>
+      </c>
+      <c r="E3" t="n">
+        <v>78.36807964162378</v>
+      </c>
+      <c r="F3" t="n">
+        <v>78.36807964162378</v>
+      </c>
+      <c r="G3" t="n">
+        <v>78.36807964162378</v>
+      </c>
+      <c r="H3" t="n">
         <v>43.90455691260225</v>
-      </c>
-      <c r="D3" t="n">
-        <v>43.90455691260225</v>
-      </c>
-      <c r="E3" t="n">
-        <v>43.90455691260225</v>
-      </c>
-      <c r="F3" t="n">
-        <v>43.90455691260225</v>
-      </c>
-      <c r="G3" t="n">
-        <v>43.90455691260225</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.920842809732961</v>
       </c>
       <c r="I3" t="n">
         <v>3.920842809732961</v>
@@ -4416,7 +4416,7 @@
         <v>81.54278654139161</v>
       </c>
       <c r="M3" t="n">
-        <v>120.7308247336138</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N3" t="n">
         <v>158.3355078473624</v>
@@ -4443,16 +4443,16 @@
         <v>158.3355078473624</v>
       </c>
       <c r="V3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X3" t="n">
         <v>118.3517937444931</v>
       </c>
       <c r="Y3" t="n">
-        <v>83.88827101547153</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="4">
@@ -4513,19 +4513,19 @@
         <v>65.64486044757699</v>
       </c>
       <c r="S4" t="n">
-        <v>25.66114634470771</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="T4" t="n">
-        <v>25.66114634470771</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="U4" t="n">
-        <v>25.66114634470771</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="V4" t="n">
-        <v>25.66114634470771</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="W4" t="n">
-        <v>25.66114634470771</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="X4" t="n">
         <v>25.66114634470771</v>
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.6395107745826</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="C5" t="n">
         <v>37.6395107745826</v>
@@ -4568,7 +4568,7 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L5" t="n">
         <v>42.35474834916943</v>
@@ -4592,25 +4592,25 @@
         <v>108.260178376266</v>
       </c>
       <c r="S5" t="n">
+        <v>108.260178376266</v>
+      </c>
+      <c r="T5" t="n">
+        <v>108.260178376266</v>
+      </c>
+      <c r="U5" t="n">
+        <v>108.260178376266</v>
+      </c>
+      <c r="V5" t="n">
+        <v>108.260178376266</v>
+      </c>
+      <c r="W5" t="n">
         <v>68.2764642733967</v>
       </c>
-      <c r="T5" t="n">
+      <c r="X5" t="n">
         <v>68.2764642733967</v>
       </c>
-      <c r="U5" t="n">
+      <c r="Y5" t="n">
         <v>68.2764642733967</v>
-      </c>
-      <c r="V5" t="n">
-        <v>37.6395107745826</v>
-      </c>
-      <c r="W5" t="n">
-        <v>37.6395107745826</v>
-      </c>
-      <c r="X5" t="n">
-        <v>37.6395107745826</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>37.6395107745826</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.90455691260225</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C6" t="n">
-        <v>43.90455691260225</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D6" t="n">
-        <v>43.90455691260225</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E6" t="n">
-        <v>43.90455691260225</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F6" t="n">
-        <v>43.90455691260225</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G6" t="n">
-        <v>43.90455691260225</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H6" t="n">
-        <v>43.90455691260225</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="I6" t="n">
         <v>3.920842809732961</v>
@@ -4647,22 +4647,22 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L6" t="n">
-        <v>3.166710156947247</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M6" t="n">
-        <v>40.77139327069581</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N6" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O6" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q6" t="n">
         <v>158.3355078473624</v>
@@ -4677,19 +4677,19 @@
         <v>158.3355078473624</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W6" t="n">
-        <v>123.8719851183408</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X6" t="n">
-        <v>83.88827101547153</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y6" t="n">
-        <v>83.88827101547153</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.46354404567346</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="C7" t="n">
-        <v>65.64486044757699</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="D7" t="n">
-        <v>65.64486044757699</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="E7" t="n">
-        <v>65.64486044757699</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="F7" t="n">
-        <v>65.64486044757699</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="G7" t="n">
-        <v>65.64486044757699</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="H7" t="n">
-        <v>65.64486044757699</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="I7" t="n">
-        <v>65.64486044757699</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="J7" t="n">
         <v>25.66114634470771</v>
@@ -4744,31 +4744,31 @@
         <v>130.4472581485427</v>
       </c>
       <c r="Q7" t="n">
-        <v>130.4472581485427</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R7" t="n">
-        <v>130.4472581485427</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="S7" t="n">
-        <v>130.4472581485427</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="T7" t="n">
-        <v>130.4472581485427</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="U7" t="n">
-        <v>130.4472581485427</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="V7" t="n">
-        <v>130.4472581485427</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="W7" t="n">
-        <v>130.4472581485427</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="X7" t="n">
-        <v>130.4472581485427</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="Y7" t="n">
-        <v>90.46354404567346</v>
+        <v>25.66114634470771</v>
       </c>
     </row>
     <row r="8">
@@ -4781,13 +4781,13 @@
         <v>68.2764642733967</v>
       </c>
       <c r="C8" t="n">
-        <v>37.6395107745826</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="D8" t="n">
-        <v>37.6395107745826</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="E8" t="n">
-        <v>37.6395107745826</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="F8" t="n">
         <v>30.69401002537914</v>
@@ -4808,16 +4808,16 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M8" t="n">
+        <v>81.54278654139161</v>
+      </c>
+      <c r="N8" t="n">
         <v>119.1474696551402</v>
       </c>
-      <c r="N8" t="n">
-        <v>158.3355078473624</v>
-      </c>
       <c r="O8" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P8" t="n">
         <v>158.3355078473624</v>
@@ -4835,10 +4835,10 @@
         <v>108.260178376266</v>
       </c>
       <c r="U8" t="n">
-        <v>108.260178376266</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="V8" t="n">
-        <v>108.260178376266</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="W8" t="n">
         <v>68.2764642733967</v>
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>118.3517937444931</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="C9" t="n">
-        <v>118.3517937444931</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="D9" t="n">
-        <v>118.3517937444931</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="E9" t="n">
-        <v>118.3517937444931</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="F9" t="n">
-        <v>118.3517937444931</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="G9" t="n">
-        <v>83.88827101547153</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="H9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="I9" t="n">
         <v>3.920842809732961</v>
@@ -4884,19 +4884,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>40.77139327069581</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L9" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M9" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N9" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="O9" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="P9" t="n">
         <v>119.1474696551402</v>
@@ -4908,22 +4908,22 @@
         <v>158.3355078473624</v>
       </c>
       <c r="S9" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T9" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U9" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V9" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W9" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X9" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y9" t="n">
         <v>118.3517937444931</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65.64486044757699</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="C10" t="n">
-        <v>65.64486044757699</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="D10" t="n">
-        <v>65.64486044757699</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="E10" t="n">
-        <v>65.64486044757699</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="F10" t="n">
         <v>25.66114634470771</v>
@@ -4999,13 +4999,13 @@
         <v>130.4472581485427</v>
       </c>
       <c r="W10" t="n">
-        <v>90.46354404567346</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="X10" t="n">
-        <v>90.46354404567346</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="Y10" t="n">
-        <v>90.46354404567346</v>
+        <v>25.66114634470771</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1616.035577776726</v>
+        <v>1527.571962133857</v>
       </c>
       <c r="C11" t="n">
-        <v>1247.073060836314</v>
+        <v>1158.609445193445</v>
       </c>
       <c r="D11" t="n">
-        <v>888.8073622295638</v>
+        <v>1158.609445193445</v>
       </c>
       <c r="E11" t="n">
-        <v>888.8073622295638</v>
+        <v>772.8211925952013</v>
       </c>
       <c r="F11" t="n">
-        <v>477.8214574399561</v>
+        <v>361.8352878055937</v>
       </c>
       <c r="G11" t="n">
-        <v>62.58640156284709</v>
+        <v>361.8352878055937</v>
       </c>
       <c r="H11" t="n">
-        <v>62.58640156284709</v>
+        <v>62.58640156284706</v>
       </c>
       <c r="I11" t="n">
-        <v>62.58640156284709</v>
+        <v>62.58640156284706</v>
       </c>
       <c r="J11" t="n">
-        <v>237.9392141677042</v>
+        <v>237.9392141677033</v>
       </c>
       <c r="K11" t="n">
-        <v>551.4861429809653</v>
+        <v>551.4861429809644</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3705957477707</v>
+        <v>977.3705957477698</v>
       </c>
       <c r="M11" t="n">
         <v>1482.918546043855</v>
@@ -5054,37 +5054,37 @@
         <v>2001.260599088673</v>
       </c>
       <c r="O11" t="n">
-        <v>2477.381040081315</v>
+        <v>2477.381040081314</v>
       </c>
       <c r="P11" t="n">
-        <v>2849.237820173866</v>
+        <v>2849.237820173865</v>
       </c>
       <c r="Q11" t="n">
-        <v>3080.314029071112</v>
+        <v>3080.31402907111</v>
       </c>
       <c r="R11" t="n">
-        <v>3129.320078142354</v>
+        <v>3129.320078142353</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.320078142354</v>
+        <v>3015.324031776967</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.009163347854</v>
+        <v>2808.634477612672</v>
       </c>
       <c r="U11" t="n">
-        <v>3119.009163347854</v>
+        <v>2555.09099242874</v>
       </c>
       <c r="V11" t="n">
-        <v>3119.009163347854</v>
+        <v>2555.09099242874</v>
       </c>
       <c r="W11" t="n">
-        <v>2766.240508077739</v>
+        <v>2202.322337158626</v>
       </c>
       <c r="X11" t="n">
-        <v>2392.77474981666</v>
+        <v>2202.322337158626</v>
       </c>
       <c r="Y11" t="n">
-        <v>2002.635417840848</v>
+        <v>1812.183005182814</v>
       </c>
     </row>
     <row r="12">
@@ -5112,19 +5112,19 @@
         <v>165.7032680133935</v>
       </c>
       <c r="H12" t="n">
-        <v>74.36112008740228</v>
+        <v>74.36112008740226</v>
       </c>
       <c r="I12" t="n">
-        <v>62.58640156284709</v>
+        <v>62.58640156284706</v>
       </c>
       <c r="J12" t="n">
-        <v>148.207488506279</v>
+        <v>148.2074885062789</v>
       </c>
       <c r="K12" t="n">
         <v>372.7023883436092</v>
       </c>
       <c r="L12" t="n">
-        <v>720.8860267214334</v>
+        <v>720.8860267214333</v>
       </c>
       <c r="M12" t="n">
         <v>1146.556778119372</v>
@@ -5136,7 +5136,7 @@
         <v>1988.575695423495</v>
       </c>
       <c r="P12" t="n">
-        <v>2282.792381011322</v>
+        <v>2409.893711035482</v>
       </c>
       <c r="Q12" t="n">
         <v>2556.650577309663</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>943.7372026688787</v>
+        <v>837.6414233266011</v>
       </c>
       <c r="C13" t="n">
-        <v>774.8010197409718</v>
+        <v>668.7052403986942</v>
       </c>
       <c r="D13" t="n">
-        <v>624.6843803286359</v>
+        <v>518.5886009863584</v>
       </c>
       <c r="E13" t="n">
-        <v>476.7712867462428</v>
+        <v>370.6755074039653</v>
       </c>
       <c r="F13" t="n">
-        <v>329.8813392483324</v>
+        <v>223.7855599060549</v>
       </c>
       <c r="G13" t="n">
-        <v>162.1055632940167</v>
+        <v>62.58640156284706</v>
       </c>
       <c r="H13" t="n">
-        <v>162.1055632940167</v>
+        <v>62.58640156284706</v>
       </c>
       <c r="I13" t="n">
-        <v>62.58640156284709</v>
+        <v>62.58640156284706</v>
       </c>
       <c r="J13" t="n">
         <v>102.654843977231</v>
       </c>
       <c r="K13" t="n">
-        <v>298.3364401167966</v>
+        <v>298.3364401167964</v>
       </c>
       <c r="L13" t="n">
-        <v>604.2679469628304</v>
+        <v>604.2679469628303</v>
       </c>
       <c r="M13" t="n">
-        <v>937.2189492640268</v>
+        <v>937.2189492640266</v>
       </c>
       <c r="N13" t="n">
-        <v>1267.687737334436</v>
+        <v>1267.687737334435</v>
       </c>
       <c r="O13" t="n">
         <v>1556.912855526276</v>
@@ -5221,28 +5221,28 @@
         <v>1852.498391782901</v>
       </c>
       <c r="R13" t="n">
-        <v>1759.388317073107</v>
+        <v>1852.498391782901</v>
       </c>
       <c r="S13" t="n">
-        <v>1566.431299320302</v>
+        <v>1852.498391782901</v>
       </c>
       <c r="T13" t="n">
-        <v>1344.353034029407</v>
+        <v>1852.498391782901</v>
       </c>
       <c r="U13" t="n">
-        <v>1344.353034029407</v>
+        <v>1563.391546399688</v>
       </c>
       <c r="V13" t="n">
-        <v>1344.353034029407</v>
+        <v>1308.707058193801</v>
       </c>
       <c r="W13" t="n">
-        <v>1344.353034029407</v>
+        <v>1019.289888156841</v>
       </c>
       <c r="X13" t="n">
-        <v>1344.353034029407</v>
+        <v>1019.289888156841</v>
       </c>
       <c r="Y13" t="n">
-        <v>1125.385667499118</v>
+        <v>1019.289888156841</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1992.902482946827</v>
+        <v>2063.809668931265</v>
       </c>
       <c r="C14" t="n">
-        <v>1992.902482946828</v>
+        <v>1694.847151990854</v>
       </c>
       <c r="D14" t="n">
-        <v>1634.636784340077</v>
+        <v>1336.581453384103</v>
       </c>
       <c r="E14" t="n">
-        <v>1248.848531741833</v>
+        <v>950.793200785859</v>
       </c>
       <c r="F14" t="n">
-        <v>837.8626269522252</v>
+        <v>539.8072959962515</v>
       </c>
       <c r="G14" t="n">
-        <v>422.7441149820392</v>
+        <v>124.6887840260655</v>
       </c>
       <c r="H14" t="n">
         <v>124.6887840260655</v>
       </c>
       <c r="I14" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="J14" t="n">
-        <v>433.3692259645358</v>
+        <v>265.9635769441828</v>
       </c>
       <c r="K14" t="n">
-        <v>761.4459628202226</v>
+        <v>914.9442722453226</v>
       </c>
       <c r="L14" t="n">
-        <v>1205.355927277171</v>
+        <v>1358.854236702271</v>
       </c>
       <c r="M14" t="n">
-        <v>1730.960732472813</v>
+        <v>1884.459041897913</v>
       </c>
       <c r="N14" t="n">
-        <v>2269.68418129826</v>
+        <v>2423.18249072336</v>
       </c>
       <c r="O14" t="n">
-        <v>2765.050196378208</v>
+        <v>2918.548505803308</v>
       </c>
       <c r="P14" t="n">
-        <v>3470.960855379216</v>
+        <v>3625.41165920705</v>
       </c>
       <c r="Q14" t="n">
-        <v>3924.563885784984</v>
+        <v>3989.623141459238</v>
       </c>
       <c r="R14" t="n">
-        <v>4045.804356784973</v>
+        <v>4045.804356784974</v>
       </c>
       <c r="S14" t="n">
-        <v>3934.46405469859</v>
+        <v>3934.464054698591</v>
       </c>
       <c r="T14" t="n">
-        <v>3728.28467148685</v>
+        <v>3728.284671486851</v>
       </c>
       <c r="U14" t="n">
         <v>3474.750509815472</v>
       </c>
       <c r="V14" t="n">
-        <v>3143.687622471901</v>
+        <v>3143.687622471902</v>
       </c>
       <c r="W14" t="n">
-        <v>2790.918967201786</v>
+        <v>2790.918967201787</v>
       </c>
       <c r="X14" t="n">
-        <v>2769.641654986761</v>
+        <v>2453.949000907077</v>
       </c>
       <c r="Y14" t="n">
-        <v>2379.502323010949</v>
+        <v>2063.809668931265</v>
       </c>
     </row>
     <row r="15">
@@ -5349,16 +5349,16 @@
         <v>181.2837982663734</v>
       </c>
       <c r="H15" t="n">
-        <v>90.54388273337446</v>
+        <v>90.54388273337447</v>
       </c>
       <c r="I15" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="J15" t="n">
-        <v>200.8814708457136</v>
+        <v>172.3112574064237</v>
       </c>
       <c r="K15" t="n">
-        <v>435.2451987718476</v>
+        <v>406.6749853325576</v>
       </c>
       <c r="L15" t="n">
         <v>796.6986944040984</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>937.9071866635064</v>
+        <v>939.1198712215756</v>
       </c>
       <c r="C16" t="n">
-        <v>937.9071866635064</v>
+        <v>770.1836882936688</v>
       </c>
       <c r="D16" t="n">
-        <v>787.7905472511707</v>
+        <v>620.067048881333</v>
       </c>
       <c r="E16" t="n">
-        <v>639.8774536687774</v>
+        <v>472.1539552989399</v>
       </c>
       <c r="F16" t="n">
-        <v>492.9875061708672</v>
+        <v>325.2640078010295</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2640078010297</v>
+        <v>325.2640078010295</v>
       </c>
       <c r="H16" t="n">
         <v>178.8631193263769</v>
       </c>
       <c r="I16" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="J16" t="n">
         <v>124.6070038707676</v>
@@ -5440,10 +5440,10 @@
         <v>326.2414380993577</v>
       </c>
       <c r="L16" t="n">
-        <v>639.790528208921</v>
+        <v>639.7905282089209</v>
       </c>
       <c r="M16" t="n">
-        <v>980.7732039975234</v>
+        <v>980.7732039975236</v>
       </c>
       <c r="N16" t="n">
         <v>1319.082690311481</v>
@@ -5461,25 +5461,25 @@
         <v>1921.622834289097</v>
       </c>
       <c r="S16" t="n">
-        <v>1897.961384171957</v>
+        <v>1899.174068730026</v>
       </c>
       <c r="T16" t="n">
-        <v>1676.106486742015</v>
+        <v>1677.319171300084</v>
       </c>
       <c r="U16" t="n">
-        <v>1676.106486742015</v>
+        <v>1677.319171300084</v>
       </c>
       <c r="V16" t="n">
-        <v>1676.106486742015</v>
+        <v>1677.319171300084</v>
       </c>
       <c r="W16" t="n">
-        <v>1386.689316705054</v>
+        <v>1387.902001263123</v>
       </c>
       <c r="X16" t="n">
-        <v>1158.699765807037</v>
+        <v>1159.912450365106</v>
       </c>
       <c r="Y16" t="n">
-        <v>937.9071866635064</v>
+        <v>939.1198712215756</v>
       </c>
     </row>
     <row r="17">
@@ -5492,73 +5492,73 @@
         <v>2027.787331812831</v>
       </c>
       <c r="C17" t="n">
-        <v>1707.208976736426</v>
+        <v>1707.208976736427</v>
       </c>
       <c r="D17" t="n">
-        <v>1397.327439993683</v>
+        <v>1397.327439993684</v>
       </c>
       <c r="E17" t="n">
         <v>1059.923349259446</v>
       </c>
       <c r="F17" t="n">
-        <v>697.3216063338451</v>
+        <v>697.321606333846</v>
       </c>
       <c r="G17" t="n">
-        <v>330.5872562276659</v>
+        <v>330.587256227666</v>
       </c>
       <c r="H17" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="I17" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="J17" t="n">
-        <v>430.0934942061172</v>
+        <v>433.3692259645359</v>
       </c>
       <c r="K17" t="n">
-        <v>1079.074189507257</v>
+        <v>761.4459628202226</v>
       </c>
       <c r="L17" t="n">
-        <v>1522.984153964206</v>
+        <v>1205.355927277171</v>
       </c>
       <c r="M17" t="n">
-        <v>2048.588959159848</v>
+        <v>1730.960732472813</v>
       </c>
       <c r="N17" t="n">
-        <v>2587.312407985294</v>
+        <v>2702.657636466124</v>
       </c>
       <c r="O17" t="n">
-        <v>3082.678423065242</v>
+        <v>3357.929519492801</v>
       </c>
       <c r="P17" t="n">
-        <v>3470.960855379216</v>
+        <v>3746.211951806775</v>
       </c>
       <c r="Q17" t="n">
-        <v>3924.563885784984</v>
+        <v>3989.623141459238</v>
       </c>
       <c r="R17" t="n">
-        <v>4045.804356784973</v>
+        <v>4045.804356784974</v>
       </c>
       <c r="S17" t="n">
-        <v>3982.848216562597</v>
+        <v>3982.848216562598</v>
       </c>
       <c r="T17" t="n">
-        <v>3825.052995214864</v>
+        <v>3825.052995214865</v>
       </c>
       <c r="U17" t="n">
-        <v>3619.902995407493</v>
+        <v>3619.902995407494</v>
       </c>
       <c r="V17" t="n">
         <v>3337.22426992793</v>
       </c>
       <c r="W17" t="n">
-        <v>3032.839776521822</v>
+        <v>3032.839776521823</v>
       </c>
       <c r="X17" t="n">
-        <v>2707.75818012475</v>
+        <v>2707.758180124751</v>
       </c>
       <c r="Y17" t="n">
-        <v>2366.003010012945</v>
+        <v>2366.003010012946</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2421.880288519786</v>
+        <v>946.8309955985541</v>
       </c>
       <c r="C18" t="n">
-        <v>2247.427259238659</v>
+        <v>772.3779663174271</v>
       </c>
       <c r="D18" t="n">
-        <v>2098.492849577407</v>
+        <v>623.4435566561758</v>
       </c>
       <c r="E18" t="n">
-        <v>1939.255394571952</v>
+        <v>464.2061016507203</v>
       </c>
       <c r="F18" t="n">
-        <v>1792.720836598837</v>
+        <v>317.6715436776052</v>
       </c>
       <c r="G18" t="n">
-        <v>1656.333091187605</v>
+        <v>181.2837982663734</v>
       </c>
       <c r="H18" t="n">
-        <v>1565.593175654606</v>
+        <v>90.54388273337447</v>
       </c>
       <c r="I18" t="n">
-        <v>1555.965380056931</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="J18" t="n">
-        <v>1675.930763766945</v>
+        <v>172.3112574064237</v>
       </c>
       <c r="K18" t="n">
-        <v>1910.294491693079</v>
+        <v>406.6749853325576</v>
       </c>
       <c r="L18" t="n">
-        <v>2271.74798732533</v>
+        <v>768.1284809648084</v>
       </c>
       <c r="M18" t="n">
-        <v>2712.904036240453</v>
+        <v>1209.284529879932</v>
       </c>
       <c r="N18" t="n">
-        <v>3180.144817985315</v>
+        <v>1705.095525064084</v>
       </c>
       <c r="O18" t="n">
-        <v>3585.359055187059</v>
+        <v>2110.309762265828</v>
       </c>
       <c r="P18" t="n">
-        <v>3891.246138616381</v>
+        <v>2416.19684569515</v>
       </c>
       <c r="Q18" t="n">
-        <v>4045.804356784973</v>
+        <v>2570.755063863742</v>
       </c>
       <c r="R18" t="n">
-        <v>4045.804356784973</v>
+        <v>2570.755063863742</v>
       </c>
       <c r="S18" t="n">
-        <v>3915.908695683258</v>
+        <v>2440.859402762027</v>
       </c>
       <c r="T18" t="n">
-        <v>3723.166357733491</v>
+        <v>2248.117064812259</v>
       </c>
       <c r="U18" t="n">
-        <v>3495.096889470285</v>
+        <v>2020.047596549053</v>
       </c>
       <c r="V18" t="n">
-        <v>3259.944781238542</v>
+        <v>1784.89548831731</v>
       </c>
       <c r="W18" t="n">
-        <v>3005.70742451034</v>
+        <v>1530.658131589109</v>
       </c>
       <c r="X18" t="n">
-        <v>2797.855924304808</v>
+        <v>1322.806631383576</v>
       </c>
       <c r="Y18" t="n">
-        <v>2590.095625539854</v>
+        <v>1115.046332618622</v>
       </c>
     </row>
     <row r="19">
@@ -5647,61 +5647,61 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.1542365433629</v>
+        <v>768.1542365433644</v>
       </c>
       <c r="C19" t="n">
-        <v>647.6022154794631</v>
+        <v>647.6022154794633</v>
       </c>
       <c r="D19" t="n">
-        <v>545.8697379311345</v>
+        <v>545.8697379311348</v>
       </c>
       <c r="E19" t="n">
-        <v>446.3408062127486</v>
+        <v>446.3408062127488</v>
       </c>
       <c r="F19" t="n">
-        <v>347.8350205788454</v>
+        <v>347.8350205788456</v>
       </c>
       <c r="G19" t="n">
-        <v>228.4956840730151</v>
+        <v>228.4956840730153</v>
       </c>
       <c r="H19" t="n">
         <v>130.4789574623698</v>
       </c>
       <c r="I19" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="J19" t="n">
-        <v>172.0283209136809</v>
+        <v>172.028320913681</v>
       </c>
       <c r="K19" t="n">
-        <v>421.0840721851844</v>
+        <v>421.0840721851845</v>
       </c>
       <c r="L19" t="n">
-        <v>782.0544793376612</v>
+        <v>782.0544793376614</v>
       </c>
       <c r="M19" t="n">
         <v>1170.458472169177</v>
       </c>
       <c r="N19" t="n">
-        <v>1556.189275526047</v>
+        <v>1556.189275526048</v>
       </c>
       <c r="O19" t="n">
-        <v>1900.077864642503</v>
+        <v>1900.077864642504</v>
       </c>
       <c r="P19" t="n">
-        <v>2177.657467019335</v>
+        <v>2177.657467019336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2300.993370632404</v>
+        <v>2300.993370632405</v>
       </c>
       <c r="R19" t="n">
-        <v>2258.618048085067</v>
+        <v>2258.618048085068</v>
       </c>
       <c r="S19" t="n">
-        <v>2114.956247918495</v>
+        <v>2114.956247918496</v>
       </c>
       <c r="T19" t="n">
-        <v>1941.48551235256</v>
+        <v>1941.485512352561</v>
       </c>
       <c r="U19" t="n">
         <v>1700.765680337963</v>
@@ -5713,10 +5713,10 @@
         <v>1253.432345823129</v>
       </c>
       <c r="X19" t="n">
-        <v>1073.826956789118</v>
+        <v>1073.82695678912</v>
       </c>
       <c r="Y19" t="n">
-        <v>901.4185395095955</v>
+        <v>901.4185395095969</v>
       </c>
     </row>
     <row r="20">
@@ -5732,70 +5732,70 @@
         <v>1707.208976736426</v>
       </c>
       <c r="D20" t="n">
-        <v>1397.327439993682</v>
+        <v>1397.327439993683</v>
       </c>
       <c r="E20" t="n">
-        <v>1059.923349259445</v>
+        <v>1059.923349259446</v>
       </c>
       <c r="F20" t="n">
-        <v>697.321606333845</v>
+        <v>697.3216063338456</v>
       </c>
       <c r="G20" t="n">
-        <v>330.5872562276659</v>
+        <v>330.587256227666</v>
       </c>
       <c r="H20" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="I20" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="J20" t="n">
-        <v>433.3692259645358</v>
+        <v>433.3692259645359</v>
       </c>
       <c r="K20" t="n">
-        <v>761.4459628202226</v>
+        <v>970.6853091707952</v>
       </c>
       <c r="L20" t="n">
-        <v>1205.355927277171</v>
+        <v>1414.595273627744</v>
       </c>
       <c r="M20" t="n">
-        <v>1730.960732472813</v>
+        <v>1940.200078823386</v>
       </c>
       <c r="N20" t="n">
-        <v>2269.68418129826</v>
+        <v>2478.923527648833</v>
       </c>
       <c r="O20" t="n">
-        <v>2765.050196378208</v>
+        <v>2974.28954272878</v>
       </c>
       <c r="P20" t="n">
-        <v>3470.960855379216</v>
+        <v>3681.152696132522</v>
       </c>
       <c r="Q20" t="n">
-        <v>3924.563885784984</v>
+        <v>3924.563885784985</v>
       </c>
       <c r="R20" t="n">
-        <v>4045.804356784973</v>
+        <v>4045.804356784974</v>
       </c>
       <c r="S20" t="n">
-        <v>3982.848216562597</v>
+        <v>3982.848216562598</v>
       </c>
       <c r="T20" t="n">
-        <v>3825.052995214864</v>
+        <v>3825.052995214865</v>
       </c>
       <c r="U20" t="n">
-        <v>3619.902995407493</v>
+        <v>3619.902995407494</v>
       </c>
       <c r="V20" t="n">
         <v>3337.22426992793</v>
       </c>
       <c r="W20" t="n">
-        <v>3032.839776521822</v>
+        <v>3032.839776521823</v>
       </c>
       <c r="X20" t="n">
         <v>2707.75818012475</v>
       </c>
       <c r="Y20" t="n">
-        <v>2366.003010012945</v>
+        <v>2366.003010012946</v>
       </c>
     </row>
     <row r="21">
@@ -5823,13 +5823,13 @@
         <v>181.2837982663734</v>
       </c>
       <c r="H21" t="n">
-        <v>90.54388273337446</v>
+        <v>90.54388273337447</v>
       </c>
       <c r="I21" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="J21" t="n">
-        <v>172.3112574064236</v>
+        <v>172.3112574064237</v>
       </c>
       <c r="K21" t="n">
         <v>406.6749853325576</v>
@@ -5838,7 +5838,7 @@
         <v>768.1284809648084</v>
       </c>
       <c r="M21" t="n">
-        <v>1209.284529879932</v>
+        <v>1237.854743319222</v>
       </c>
       <c r="N21" t="n">
         <v>1705.095525064084</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.1542365433634</v>
+        <v>768.1542365433629</v>
       </c>
       <c r="C22" t="n">
-        <v>647.6022154794636</v>
+        <v>647.6022154794632</v>
       </c>
       <c r="D22" t="n">
-        <v>545.869737931135</v>
+        <v>545.8697379311348</v>
       </c>
       <c r="E22" t="n">
-        <v>446.340806212749</v>
+        <v>446.3408062127488</v>
       </c>
       <c r="F22" t="n">
-        <v>347.8350205788458</v>
+        <v>347.8350205788456</v>
       </c>
       <c r="G22" t="n">
-        <v>228.4956840730156</v>
+        <v>228.4956840730153</v>
       </c>
       <c r="H22" t="n">
         <v>130.4789574623698</v>
       </c>
       <c r="I22" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="J22" t="n">
         <v>172.028320913681</v>
@@ -5926,13 +5926,13 @@
         <v>1900.077864642504</v>
       </c>
       <c r="P22" t="n">
-        <v>2177.657467019335</v>
+        <v>2177.657467019336</v>
       </c>
       <c r="Q22" t="n">
         <v>2300.993370632404</v>
       </c>
       <c r="R22" t="n">
-        <v>2258.618048085067</v>
+        <v>2258.618048085068</v>
       </c>
       <c r="S22" t="n">
         <v>2114.956247918495</v>
@@ -5941,19 +5941,19 @@
         <v>1941.48551235256</v>
       </c>
       <c r="U22" t="n">
-        <v>1700.765680337963</v>
+        <v>1700.765680337962</v>
       </c>
       <c r="V22" t="n">
-        <v>1494.465353996083</v>
+        <v>1494.465353996082</v>
       </c>
       <c r="W22" t="n">
         <v>1253.432345823129</v>
       </c>
       <c r="X22" t="n">
-        <v>1073.826956789119</v>
+        <v>1073.826956789118</v>
       </c>
       <c r="Y22" t="n">
-        <v>901.4185395095959</v>
+        <v>901.4185395095956</v>
       </c>
     </row>
     <row r="23">
@@ -5969,43 +5969,43 @@
         <v>1707.208976736426</v>
       </c>
       <c r="D23" t="n">
-        <v>1397.327439993682</v>
+        <v>1397.327439993683</v>
       </c>
       <c r="E23" t="n">
-        <v>1059.923349259445</v>
+        <v>1059.923349259446</v>
       </c>
       <c r="F23" t="n">
-        <v>697.321606333845</v>
+        <v>697.3216063338451</v>
       </c>
       <c r="G23" t="n">
-        <v>330.5872562276659</v>
+        <v>330.587256227666</v>
       </c>
       <c r="H23" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="I23" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="J23" t="n">
         <v>265.9635769441828</v>
       </c>
       <c r="K23" t="n">
-        <v>914.9442722453226</v>
+        <v>594.0403137998694</v>
       </c>
       <c r="L23" t="n">
-        <v>1772.338839107217</v>
+        <v>1037.950278256818</v>
       </c>
       <c r="M23" t="n">
-        <v>2297.943644302859</v>
+        <v>1563.55508345246</v>
       </c>
       <c r="N23" t="n">
-        <v>2862.563504412853</v>
+        <v>2485.571324962736</v>
       </c>
       <c r="O23" t="n">
-        <v>3357.9295194928</v>
+        <v>3357.929519492801</v>
       </c>
       <c r="P23" t="n">
-        <v>3746.211951806774</v>
+        <v>3746.211951806775</v>
       </c>
       <c r="Q23" t="n">
         <v>3989.623141459238</v>
@@ -6014,13 +6014,13 @@
         <v>4045.804356784974</v>
       </c>
       <c r="S23" t="n">
-        <v>3982.848216562597</v>
+        <v>3982.848216562598</v>
       </c>
       <c r="T23" t="n">
-        <v>3825.052995214864</v>
+        <v>3825.052995214865</v>
       </c>
       <c r="U23" t="n">
-        <v>3619.902995407493</v>
+        <v>3619.902995407494</v>
       </c>
       <c r="V23" t="n">
         <v>3337.22426992793</v>
@@ -6060,34 +6060,34 @@
         <v>181.2837982663734</v>
       </c>
       <c r="H24" t="n">
-        <v>90.54388273337446</v>
+        <v>90.5438827333745</v>
       </c>
       <c r="I24" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="J24" t="n">
-        <v>172.3112574064236</v>
+        <v>200.8814708457139</v>
       </c>
       <c r="K24" t="n">
-        <v>406.6749853325576</v>
+        <v>435.2451987718478</v>
       </c>
       <c r="L24" t="n">
-        <v>768.1284809648084</v>
+        <v>796.6986944040984</v>
       </c>
       <c r="M24" t="n">
-        <v>1209.284529879932</v>
+        <v>1237.854743319222</v>
       </c>
       <c r="N24" t="n">
-        <v>1676.525311624794</v>
+        <v>1705.095525064084</v>
       </c>
       <c r="O24" t="n">
-        <v>2081.739548826538</v>
+        <v>2110.309762265828</v>
       </c>
       <c r="P24" t="n">
-        <v>2387.62663225586</v>
+        <v>2416.19684569515</v>
       </c>
       <c r="Q24" t="n">
-        <v>2542.184850424452</v>
+        <v>2570.755063863742</v>
       </c>
       <c r="R24" t="n">
         <v>2570.755063863742</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.154236543363</v>
+        <v>768.1542365433625</v>
       </c>
       <c r="C25" t="n">
-        <v>647.6022154794632</v>
+        <v>647.6022154794626</v>
       </c>
       <c r="D25" t="n">
-        <v>545.8697379311346</v>
+        <v>545.8697379311341</v>
       </c>
       <c r="E25" t="n">
-        <v>446.3408062127487</v>
+        <v>446.3408062127481</v>
       </c>
       <c r="F25" t="n">
-        <v>347.8350205788455</v>
+        <v>347.8350205788449</v>
       </c>
       <c r="G25" t="n">
-        <v>228.4956840730152</v>
+        <v>228.4956840730147</v>
       </c>
       <c r="H25" t="n">
         <v>130.4789574623698</v>
       </c>
       <c r="I25" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569948</v>
       </c>
       <c r="J25" t="n">
         <v>172.0283209136809</v>
       </c>
       <c r="K25" t="n">
-        <v>421.0840721851843</v>
+        <v>421.0840721851844</v>
       </c>
       <c r="L25" t="n">
         <v>782.0544793376611</v>
@@ -6157,40 +6157,40 @@
         <v>1170.458472169177</v>
       </c>
       <c r="N25" t="n">
-        <v>1556.189275526048</v>
+        <v>1556.189275526047</v>
       </c>
       <c r="O25" t="n">
-        <v>1900.077864642504</v>
+        <v>1900.077864642503</v>
       </c>
       <c r="P25" t="n">
-        <v>2177.657467019335</v>
+        <v>2177.657467019334</v>
       </c>
       <c r="Q25" t="n">
-        <v>2300.993370632404</v>
+        <v>2300.993370632403</v>
       </c>
       <c r="R25" t="n">
-        <v>2258.618048085067</v>
+        <v>2258.618048085066</v>
       </c>
       <c r="S25" t="n">
-        <v>2114.956247918495</v>
+        <v>2114.956247918494</v>
       </c>
       <c r="T25" t="n">
-        <v>1941.48551235256</v>
+        <v>1941.485512352559</v>
       </c>
       <c r="U25" t="n">
-        <v>1700.765680337963</v>
+        <v>1700.765680337961</v>
       </c>
       <c r="V25" t="n">
-        <v>1494.465353996083</v>
+        <v>1494.465353996081</v>
       </c>
       <c r="W25" t="n">
-        <v>1253.432345823129</v>
+        <v>1253.432345823128</v>
       </c>
       <c r="X25" t="n">
-        <v>1073.826956789119</v>
+        <v>1073.826956789118</v>
       </c>
       <c r="Y25" t="n">
-        <v>901.4185395095956</v>
+        <v>901.418539509595</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2027.78733181283</v>
       </c>
       <c r="C26" t="n">
-        <v>1707.208976736426</v>
+        <v>1707.208976736425</v>
       </c>
       <c r="D26" t="n">
         <v>1397.327439993682</v>
@@ -6212,7 +6212,7 @@
         <v>1059.923349259445</v>
       </c>
       <c r="F26" t="n">
-        <v>697.321606333845</v>
+        <v>697.3216063338446</v>
       </c>
       <c r="G26" t="n">
         <v>330.5872562276659</v>
@@ -6233,16 +6233,16 @@
         <v>1037.950278256818</v>
       </c>
       <c r="M26" t="n">
-        <v>1563.55508345246</v>
+        <v>2008.573481610365</v>
       </c>
       <c r="N26" t="n">
-        <v>2535.251987445771</v>
+        <v>2862.563504412853</v>
       </c>
       <c r="O26" t="n">
-        <v>3030.618002525719</v>
+        <v>3357.9295194928</v>
       </c>
       <c r="P26" t="n">
-        <v>3536.020111053469</v>
+        <v>3746.211951806774</v>
       </c>
       <c r="Q26" t="n">
         <v>3989.623141459238</v>
@@ -6257,19 +6257,19 @@
         <v>3825.052995214864</v>
       </c>
       <c r="U26" t="n">
-        <v>3619.902995407493</v>
+        <v>3619.902995407492</v>
       </c>
       <c r="V26" t="n">
-        <v>3337.22426992793</v>
+        <v>3337.224269927929</v>
       </c>
       <c r="W26" t="n">
-        <v>3032.839776521822</v>
+        <v>3032.839776521821</v>
       </c>
       <c r="X26" t="n">
-        <v>2707.75818012475</v>
+        <v>2707.758180124749</v>
       </c>
       <c r="Y26" t="n">
-        <v>2366.003010012945</v>
+        <v>2366.003010012944</v>
       </c>
     </row>
     <row r="27">
@@ -6312,19 +6312,19 @@
         <v>768.1284809648084</v>
       </c>
       <c r="M27" t="n">
-        <v>1209.284529879932</v>
+        <v>1237.854743319222</v>
       </c>
       <c r="N27" t="n">
-        <v>1676.525311624794</v>
+        <v>1705.095525064084</v>
       </c>
       <c r="O27" t="n">
-        <v>2081.739548826538</v>
+        <v>2110.309762265828</v>
       </c>
       <c r="P27" t="n">
-        <v>2387.62663225586</v>
+        <v>2416.19684569515</v>
       </c>
       <c r="Q27" t="n">
-        <v>2542.184850424452</v>
+        <v>2570.755063863742</v>
       </c>
       <c r="R27" t="n">
         <v>2570.755063863742</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.154236543363</v>
+        <v>768.1542365433635</v>
       </c>
       <c r="C28" t="n">
-        <v>647.6022154794632</v>
+        <v>647.6022154794637</v>
       </c>
       <c r="D28" t="n">
-        <v>545.8697379311346</v>
+        <v>545.8697379311351</v>
       </c>
       <c r="E28" t="n">
-        <v>446.3408062127487</v>
+        <v>446.3408062127492</v>
       </c>
       <c r="F28" t="n">
-        <v>347.8350205788455</v>
+        <v>347.835020578846</v>
       </c>
       <c r="G28" t="n">
-        <v>228.4956840730152</v>
+        <v>228.4956840730156</v>
       </c>
       <c r="H28" t="n">
         <v>130.4789574623698</v>
@@ -6385,10 +6385,10 @@
         <v>172.028320913681</v>
       </c>
       <c r="K28" t="n">
-        <v>421.0840721851844</v>
+        <v>421.0840721851845</v>
       </c>
       <c r="L28" t="n">
-        <v>782.054479337661</v>
+        <v>782.0544793376611</v>
       </c>
       <c r="M28" t="n">
         <v>1170.458472169177</v>
@@ -6403,7 +6403,7 @@
         <v>2177.657467019335</v>
       </c>
       <c r="Q28" t="n">
-        <v>2300.993370632404</v>
+        <v>2300.993370632403</v>
       </c>
       <c r="R28" t="n">
         <v>2258.618048085067</v>
@@ -6415,10 +6415,10 @@
         <v>1941.48551235256</v>
       </c>
       <c r="U28" t="n">
-        <v>1700.765680337962</v>
+        <v>1700.765680337963</v>
       </c>
       <c r="V28" t="n">
-        <v>1494.465353996082</v>
+        <v>1494.465353996083</v>
       </c>
       <c r="W28" t="n">
         <v>1253.432345823129</v>
@@ -6427,7 +6427,7 @@
         <v>1073.826956789119</v>
       </c>
       <c r="Y28" t="n">
-        <v>901.4185395095956</v>
+        <v>901.418539509596</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2027.78733181283</v>
       </c>
       <c r="C29" t="n">
-        <v>1707.208976736426</v>
+        <v>1707.208976736425</v>
       </c>
       <c r="D29" t="n">
         <v>1397.327439993682</v>
@@ -6449,16 +6449,16 @@
         <v>1059.923349259445</v>
       </c>
       <c r="F29" t="n">
-        <v>697.321606333845</v>
+        <v>697.3216063338446</v>
       </c>
       <c r="G29" t="n">
         <v>330.5872562276659</v>
       </c>
       <c r="H29" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="I29" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J29" t="n">
         <v>265.9635769441828</v>
@@ -6470,25 +6470,25 @@
         <v>1037.950278256818</v>
       </c>
       <c r="M29" t="n">
-        <v>2008.573481610365</v>
+        <v>1890.866600419541</v>
       </c>
       <c r="N29" t="n">
-        <v>2547.296930435811</v>
+        <v>2862.563504412852</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.662945515759</v>
+        <v>3357.929519492799</v>
       </c>
       <c r="P29" t="n">
-        <v>3746.211951806774</v>
+        <v>3746.211951806773</v>
       </c>
       <c r="Q29" t="n">
-        <v>3989.623141459238</v>
+        <v>3989.623141459237</v>
       </c>
       <c r="R29" t="n">
-        <v>4045.804356784974</v>
+        <v>4045.804356784973</v>
       </c>
       <c r="S29" t="n">
-        <v>3982.848216562598</v>
+        <v>3982.848216562597</v>
       </c>
       <c r="T29" t="n">
         <v>3825.052995214864</v>
@@ -6497,16 +6497,16 @@
         <v>3619.902995407493</v>
       </c>
       <c r="V29" t="n">
-        <v>3337.22426992793</v>
+        <v>3337.224269927929</v>
       </c>
       <c r="W29" t="n">
-        <v>3032.839776521822</v>
+        <v>3032.839776521821</v>
       </c>
       <c r="X29" t="n">
-        <v>2707.75818012475</v>
+        <v>2707.758180124749</v>
       </c>
       <c r="Y29" t="n">
-        <v>2366.003010012945</v>
+        <v>2366.003010012944</v>
       </c>
     </row>
     <row r="30">
@@ -6531,28 +6531,28 @@
         <v>317.6715436776052</v>
       </c>
       <c r="G30" t="n">
-        <v>181.2837982663734</v>
+        <v>181.2837982663733</v>
       </c>
       <c r="H30" t="n">
-        <v>90.54388273337446</v>
+        <v>90.54388273337445</v>
       </c>
       <c r="I30" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J30" t="n">
-        <v>200.8814708457136</v>
+        <v>172.3112574064236</v>
       </c>
       <c r="K30" t="n">
-        <v>435.2451987718476</v>
+        <v>406.6749853325576</v>
       </c>
       <c r="L30" t="n">
-        <v>796.6986944040984</v>
+        <v>768.1284809648084</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.854743319222</v>
+        <v>1209.284529879932</v>
       </c>
       <c r="N30" t="n">
-        <v>1705.095525064084</v>
+        <v>1676.525311624794</v>
       </c>
       <c r="O30" t="n">
         <v>2110.309762265828</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.154236543364</v>
+        <v>768.1542365433631</v>
       </c>
       <c r="C31" t="n">
-        <v>647.6022154794642</v>
+        <v>647.6022154794633</v>
       </c>
       <c r="D31" t="n">
-        <v>545.8697379311357</v>
+        <v>545.8697379311348</v>
       </c>
       <c r="E31" t="n">
-        <v>446.3408062127497</v>
+        <v>446.3408062127488</v>
       </c>
       <c r="F31" t="n">
         <v>347.8350205788456</v>
       </c>
       <c r="G31" t="n">
-        <v>228.4956840730153</v>
+        <v>228.4956840730154</v>
       </c>
       <c r="H31" t="n">
         <v>130.4789574623698</v>
       </c>
       <c r="I31" t="n">
-        <v>80.91608713569947</v>
+        <v>80.91608713569946</v>
       </c>
       <c r="J31" t="n">
-        <v>172.0283209136809</v>
+        <v>172.028320913681</v>
       </c>
       <c r="K31" t="n">
-        <v>421.0840721851845</v>
+        <v>421.0840721851844</v>
       </c>
       <c r="L31" t="n">
         <v>782.0544793376612</v>
@@ -6640,7 +6640,7 @@
         <v>2177.657467019335</v>
       </c>
       <c r="Q31" t="n">
-        <v>2300.993370632404</v>
+        <v>2300.993370632403</v>
       </c>
       <c r="R31" t="n">
         <v>2258.618048085067</v>
@@ -6652,7 +6652,7 @@
         <v>1941.48551235256</v>
       </c>
       <c r="U31" t="n">
-        <v>1700.765680337963</v>
+        <v>1700.765680337962</v>
       </c>
       <c r="V31" t="n">
         <v>1494.465353996083</v>
@@ -6661,10 +6661,10 @@
         <v>1253.432345823129</v>
       </c>
       <c r="X31" t="n">
-        <v>1073.82695678912</v>
+        <v>1073.826956789119</v>
       </c>
       <c r="Y31" t="n">
-        <v>901.4185395095966</v>
+        <v>901.4185395095957</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1059.923349259445</v>
       </c>
       <c r="F32" t="n">
-        <v>697.321606333845</v>
+        <v>697.3216063338446</v>
       </c>
       <c r="G32" t="n">
-        <v>330.5872562276659</v>
+        <v>330.587256227666</v>
       </c>
       <c r="H32" t="n">
         <v>80.91608713569947</v>
@@ -6701,31 +6701,31 @@
         <v>265.9635769441828</v>
       </c>
       <c r="K32" t="n">
-        <v>594.0403137998695</v>
+        <v>909.3068877769109</v>
       </c>
       <c r="L32" t="n">
-        <v>1037.950278256818</v>
+        <v>1353.21685223386</v>
       </c>
       <c r="M32" t="n">
-        <v>2008.573481610365</v>
+        <v>2323.840055587406</v>
       </c>
       <c r="N32" t="n">
-        <v>2547.296930435811</v>
+        <v>2862.563504412852</v>
       </c>
       <c r="O32" t="n">
-        <v>3042.662945515759</v>
+        <v>3357.9295194928</v>
       </c>
       <c r="P32" t="n">
         <v>3746.211951806774</v>
       </c>
       <c r="Q32" t="n">
-        <v>3989.623141459238</v>
+        <v>3989.623141459237</v>
       </c>
       <c r="R32" t="n">
-        <v>4045.804356784974</v>
+        <v>4045.804356784973</v>
       </c>
       <c r="S32" t="n">
-        <v>3982.848216562598</v>
+        <v>3982.848216562597</v>
       </c>
       <c r="T32" t="n">
         <v>3825.052995214864</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.1542365433637</v>
+        <v>768.1542365433631</v>
       </c>
       <c r="C34" t="n">
-        <v>647.6022154794639</v>
+        <v>647.6022154794633</v>
       </c>
       <c r="D34" t="n">
-        <v>545.8697379311353</v>
+        <v>545.8697379311348</v>
       </c>
       <c r="E34" t="n">
-        <v>446.3408062127493</v>
+        <v>446.3408062127487</v>
       </c>
       <c r="F34" t="n">
-        <v>347.8350205788456</v>
+        <v>347.8350205788454</v>
       </c>
       <c r="G34" t="n">
-        <v>228.4956840730153</v>
+        <v>228.4956840730151</v>
       </c>
       <c r="H34" t="n">
-        <v>130.4789574623698</v>
+        <v>130.4789574623692</v>
       </c>
       <c r="I34" t="n">
         <v>80.91608713569947</v>
@@ -6868,10 +6868,10 @@
         <v>1170.458472169177</v>
       </c>
       <c r="N34" t="n">
-        <v>1556.189275526048</v>
+        <v>1556.189275526047</v>
       </c>
       <c r="O34" t="n">
-        <v>1900.077864642504</v>
+        <v>1900.077864642503</v>
       </c>
       <c r="P34" t="n">
         <v>2177.657467019335</v>
@@ -6883,10 +6883,10 @@
         <v>2258.618048085067</v>
       </c>
       <c r="S34" t="n">
-        <v>2114.956247918496</v>
+        <v>2114.956247918495</v>
       </c>
       <c r="T34" t="n">
-        <v>1941.485512352561</v>
+        <v>1941.48551235256</v>
       </c>
       <c r="U34" t="n">
         <v>1700.765680337963</v>
@@ -6901,7 +6901,7 @@
         <v>1073.826956789119</v>
       </c>
       <c r="Y34" t="n">
-        <v>901.4185395095963</v>
+        <v>901.4185395095958</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2027.787331812831</v>
+        <v>2027.78733181283</v>
       </c>
       <c r="C35" t="n">
         <v>1707.208976736426</v>
@@ -6923,10 +6923,10 @@
         <v>1059.923349259445</v>
       </c>
       <c r="F35" t="n">
-        <v>697.321606333845</v>
+        <v>697.3216063338446</v>
       </c>
       <c r="G35" t="n">
-        <v>330.5872562276659</v>
+        <v>330.587256227666</v>
       </c>
       <c r="H35" t="n">
         <v>80.91608713569947</v>
@@ -6947,19 +6947,19 @@
         <v>2008.573481610365</v>
       </c>
       <c r="N35" t="n">
-        <v>2862.563504412853</v>
+        <v>2547.296930435811</v>
       </c>
       <c r="O35" t="n">
-        <v>3357.9295194928</v>
+        <v>3042.662945515759</v>
       </c>
       <c r="P35" t="n">
         <v>3746.211951806774</v>
       </c>
       <c r="Q35" t="n">
-        <v>3989.623141459238</v>
+        <v>3989.623141459237</v>
       </c>
       <c r="R35" t="n">
-        <v>4045.804356784974</v>
+        <v>4045.804356784973</v>
       </c>
       <c r="S35" t="n">
         <v>3982.848216562598</v>
@@ -7032,7 +7032,7 @@
         <v>2081.739548826538</v>
       </c>
       <c r="P36" t="n">
-        <v>2387.62663225586</v>
+        <v>2416.19684569515</v>
       </c>
       <c r="Q36" t="n">
         <v>2570.755063863742</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.1542365433631</v>
+        <v>768.1542365433634</v>
       </c>
       <c r="C37" t="n">
-        <v>647.6022154794633</v>
+        <v>647.6022154794636</v>
       </c>
       <c r="D37" t="n">
-        <v>545.8697379311348</v>
+        <v>545.869737931135</v>
       </c>
       <c r="E37" t="n">
-        <v>446.3408062127488</v>
+        <v>446.3408062127489</v>
       </c>
       <c r="F37" t="n">
-        <v>347.8350205788456</v>
+        <v>347.8350205788457</v>
       </c>
       <c r="G37" t="n">
         <v>228.4956840730153</v>
@@ -7093,16 +7093,16 @@
         <v>80.91608713569947</v>
       </c>
       <c r="J37" t="n">
-        <v>172.028320913681</v>
+        <v>172.0283209136809</v>
       </c>
       <c r="K37" t="n">
-        <v>421.0840721851845</v>
+        <v>421.0840721851851</v>
       </c>
       <c r="L37" t="n">
-        <v>782.0544793376612</v>
+        <v>782.0544793376617</v>
       </c>
       <c r="M37" t="n">
-        <v>1170.458472169177</v>
+        <v>1170.458472169178</v>
       </c>
       <c r="N37" t="n">
         <v>1556.189275526048</v>
@@ -7111,25 +7111,25 @@
         <v>1900.077864642504</v>
       </c>
       <c r="P37" t="n">
-        <v>2177.657467019335</v>
+        <v>2177.657467019336</v>
       </c>
       <c r="Q37" t="n">
         <v>2300.993370632404</v>
       </c>
       <c r="R37" t="n">
-        <v>2258.618048085067</v>
+        <v>2258.618048085068</v>
       </c>
       <c r="S37" t="n">
-        <v>2114.956247918495</v>
+        <v>2114.956247918496</v>
       </c>
       <c r="T37" t="n">
         <v>1941.48551235256</v>
       </c>
       <c r="U37" t="n">
-        <v>1700.765680337962</v>
+        <v>1700.765680337963</v>
       </c>
       <c r="V37" t="n">
-        <v>1494.465353996082</v>
+        <v>1494.465353996083</v>
       </c>
       <c r="W37" t="n">
         <v>1253.432345823129</v>
@@ -7138,7 +7138,7 @@
         <v>1073.826956789119</v>
       </c>
       <c r="Y37" t="n">
-        <v>901.4185395095957</v>
+        <v>901.418539509596</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2027.787331812831</v>
+        <v>2027.787331812832</v>
       </c>
       <c r="C38" t="n">
-        <v>1707.208976736426</v>
+        <v>1707.208976736427</v>
       </c>
       <c r="D38" t="n">
         <v>1397.327439993683</v>
@@ -7160,10 +7160,10 @@
         <v>1059.923349259446</v>
       </c>
       <c r="F38" t="n">
-        <v>697.3216063338456</v>
+        <v>697.3216063338459</v>
       </c>
       <c r="G38" t="n">
-        <v>330.587256227666</v>
+        <v>330.5872562276659</v>
       </c>
       <c r="H38" t="n">
         <v>80.91608713569948</v>
@@ -7172,28 +7172,28 @@
         <v>80.91608713569948</v>
       </c>
       <c r="J38" t="n">
-        <v>265.9635769441828</v>
+        <v>433.3692259645359</v>
       </c>
       <c r="K38" t="n">
-        <v>914.9442722453226</v>
+        <v>761.4459628202226</v>
       </c>
       <c r="L38" t="n">
-        <v>1358.854236702271</v>
+        <v>1205.355927277171</v>
       </c>
       <c r="M38" t="n">
-        <v>1884.459041897913</v>
+        <v>1730.960732472813</v>
       </c>
       <c r="N38" t="n">
-        <v>2423.18249072336</v>
+        <v>2269.68418129826</v>
       </c>
       <c r="O38" t="n">
-        <v>2918.548505803308</v>
+        <v>2974.28954272878</v>
       </c>
       <c r="P38" t="n">
-        <v>3625.41165920705</v>
+        <v>3681.152696132522</v>
       </c>
       <c r="Q38" t="n">
-        <v>3989.623141459238</v>
+        <v>3924.563885784985</v>
       </c>
       <c r="R38" t="n">
         <v>4045.804356784974</v>
@@ -7214,7 +7214,7 @@
         <v>3032.839776521823</v>
       </c>
       <c r="X38" t="n">
-        <v>2707.75818012475</v>
+        <v>2707.758180124751</v>
       </c>
       <c r="Y38" t="n">
         <v>2366.003010012946</v>
@@ -7251,28 +7251,28 @@
         <v>80.91608713569948</v>
       </c>
       <c r="J39" t="n">
-        <v>172.3112574064237</v>
+        <v>200.8814708457136</v>
       </c>
       <c r="K39" t="n">
-        <v>406.6749853325576</v>
+        <v>435.2451987718476</v>
       </c>
       <c r="L39" t="n">
-        <v>768.1284809648084</v>
+        <v>796.6986944040984</v>
       </c>
       <c r="M39" t="n">
-        <v>1209.284529879932</v>
+        <v>1237.854743319222</v>
       </c>
       <c r="N39" t="n">
-        <v>1676.525311624794</v>
+        <v>1705.095525064084</v>
       </c>
       <c r="O39" t="n">
-        <v>2081.739548826538</v>
+        <v>2110.309762265828</v>
       </c>
       <c r="P39" t="n">
-        <v>2387.62663225586</v>
+        <v>2416.19684569515</v>
       </c>
       <c r="Q39" t="n">
-        <v>2542.184850424452</v>
+        <v>2570.755063863742</v>
       </c>
       <c r="R39" t="n">
         <v>2570.755063863742</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>768.1542365433629</v>
+        <v>768.1542365433631</v>
       </c>
       <c r="C40" t="n">
-        <v>647.6022154794631</v>
+        <v>647.6022154794633</v>
       </c>
       <c r="D40" t="n">
-        <v>545.8697379311345</v>
+        <v>545.8697379311348</v>
       </c>
       <c r="E40" t="n">
-        <v>446.3408062127486</v>
+        <v>446.3408062127488</v>
       </c>
       <c r="F40" t="n">
-        <v>347.8350205788454</v>
+        <v>347.8350205788456</v>
       </c>
       <c r="G40" t="n">
-        <v>228.4956840730151</v>
+        <v>228.4956840730154</v>
       </c>
       <c r="H40" t="n">
-        <v>130.4789574623696</v>
+        <v>130.4789574623698</v>
       </c>
       <c r="I40" t="n">
         <v>80.91608713569948</v>
@@ -7342,10 +7342,10 @@
         <v>1170.458472169177</v>
       </c>
       <c r="N40" t="n">
-        <v>1556.189275526047</v>
+        <v>1556.189275526048</v>
       </c>
       <c r="O40" t="n">
-        <v>1900.077864642503</v>
+        <v>1900.077864642504</v>
       </c>
       <c r="P40" t="n">
         <v>2177.657467019335</v>
@@ -7366,16 +7366,16 @@
         <v>1700.765680337962</v>
       </c>
       <c r="V40" t="n">
-        <v>1494.465353996082</v>
+        <v>1494.465353996083</v>
       </c>
       <c r="W40" t="n">
         <v>1253.432345823129</v>
       </c>
       <c r="X40" t="n">
-        <v>1073.826956789118</v>
+        <v>1073.826956789119</v>
       </c>
       <c r="Y40" t="n">
-        <v>901.4185395095955</v>
+        <v>901.4185395095957</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2027.78733181283</v>
       </c>
       <c r="C41" t="n">
-        <v>1707.208976736425</v>
+        <v>1707.208976736426</v>
       </c>
       <c r="D41" t="n">
-        <v>1397.327439993682</v>
+        <v>1397.327439993683</v>
       </c>
       <c r="E41" t="n">
-        <v>1059.923349259445</v>
+        <v>1059.923349259446</v>
       </c>
       <c r="F41" t="n">
-        <v>697.3216063338447</v>
+        <v>697.3216063338451</v>
       </c>
       <c r="G41" t="n">
-        <v>330.587256227666</v>
+        <v>330.5872562276659</v>
       </c>
       <c r="H41" t="n">
         <v>80.91608713569947</v>
@@ -7415,22 +7415,22 @@
         <v>761.4459628202226</v>
       </c>
       <c r="L41" t="n">
-        <v>1205.355927277171</v>
+        <v>1618.840529682117</v>
       </c>
       <c r="M41" t="n">
-        <v>1940.200078823385</v>
+        <v>2144.44533487776</v>
       </c>
       <c r="N41" t="n">
-        <v>2478.923527648832</v>
+        <v>2683.168783703206</v>
       </c>
       <c r="O41" t="n">
-        <v>2974.289542728779</v>
+        <v>3178.534798783154</v>
       </c>
       <c r="P41" t="n">
-        <v>3681.152696132521</v>
+        <v>3746.211951806774</v>
       </c>
       <c r="Q41" t="n">
-        <v>3924.563885784984</v>
+        <v>3989.623141459237</v>
       </c>
       <c r="R41" t="n">
         <v>4045.804356784973</v>
@@ -7445,13 +7445,13 @@
         <v>3619.902995407493</v>
       </c>
       <c r="V41" t="n">
-        <v>3337.224269927929</v>
+        <v>3337.22426992793</v>
       </c>
       <c r="W41" t="n">
         <v>3032.839776521822</v>
       </c>
       <c r="X41" t="n">
-        <v>2707.758180124749</v>
+        <v>2707.75818012475</v>
       </c>
       <c r="Y41" t="n">
         <v>2366.003010012945</v>
@@ -7494,22 +7494,22 @@
         <v>406.6749853325576</v>
       </c>
       <c r="L42" t="n">
-        <v>768.1284809648084</v>
+        <v>796.6986944040984</v>
       </c>
       <c r="M42" t="n">
-        <v>1209.284529879932</v>
+        <v>1237.854743319222</v>
       </c>
       <c r="N42" t="n">
-        <v>1676.525311624794</v>
+        <v>1705.095525064084</v>
       </c>
       <c r="O42" t="n">
-        <v>2081.739548826538</v>
+        <v>2110.309762265828</v>
       </c>
       <c r="P42" t="n">
-        <v>2387.62663225586</v>
+        <v>2416.19684569515</v>
       </c>
       <c r="Q42" t="n">
-        <v>2542.184850424452</v>
+        <v>2570.755063863742</v>
       </c>
       <c r="R42" t="n">
         <v>2570.755063863742</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.1542365433633</v>
+        <v>768.1542365433631</v>
       </c>
       <c r="C43" t="n">
-        <v>647.6022154794634</v>
+        <v>647.6022154794633</v>
       </c>
       <c r="D43" t="n">
-        <v>545.8697379311349</v>
+        <v>545.8697379311348</v>
       </c>
       <c r="E43" t="n">
-        <v>446.3408062127489</v>
+        <v>446.3408062127488</v>
       </c>
       <c r="F43" t="n">
         <v>347.8350205788456</v>
       </c>
       <c r="G43" t="n">
-        <v>228.4956840730147</v>
+        <v>228.4956840730153</v>
       </c>
       <c r="H43" t="n">
-        <v>130.4789574623692</v>
+        <v>130.4789574623698</v>
       </c>
       <c r="I43" t="n">
         <v>80.91608713569947</v>
       </c>
       <c r="J43" t="n">
-        <v>172.0283209136809</v>
+        <v>172.028320913681</v>
       </c>
       <c r="K43" t="n">
         <v>421.0840721851845</v>
       </c>
       <c r="L43" t="n">
-        <v>782.0544793376612</v>
+        <v>782.0544793376613</v>
       </c>
       <c r="M43" t="n">
         <v>1170.458472169177</v>
       </c>
       <c r="N43" t="n">
-        <v>1556.189275526047</v>
+        <v>1556.189275526048</v>
       </c>
       <c r="O43" t="n">
-        <v>1900.077864642503</v>
+        <v>1900.077864642504</v>
       </c>
       <c r="P43" t="n">
         <v>2177.657467019335</v>
@@ -7594,7 +7594,7 @@
         <v>2258.618048085067</v>
       </c>
       <c r="S43" t="n">
-        <v>2114.956247918496</v>
+        <v>2114.956247918495</v>
       </c>
       <c r="T43" t="n">
         <v>1941.48551235256</v>
@@ -7603,7 +7603,7 @@
         <v>1700.765680337962</v>
       </c>
       <c r="V43" t="n">
-        <v>1494.465353996083</v>
+        <v>1494.465353996082</v>
       </c>
       <c r="W43" t="n">
         <v>1253.432345823129</v>
@@ -7612,7 +7612,7 @@
         <v>1073.826956789119</v>
       </c>
       <c r="Y43" t="n">
-        <v>901.4185395095958</v>
+        <v>901.4185395095957</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1059.923349259445</v>
       </c>
       <c r="F44" t="n">
-        <v>697.3216063338447</v>
+        <v>697.3216063338446</v>
       </c>
       <c r="G44" t="n">
         <v>330.587256227666</v>
@@ -7646,34 +7646,34 @@
         <v>80.91608713569947</v>
       </c>
       <c r="J44" t="n">
-        <v>432.4167315618027</v>
+        <v>433.3692259645358</v>
       </c>
       <c r="K44" t="n">
-        <v>760.4934684174895</v>
+        <v>940.8406835298691</v>
       </c>
       <c r="L44" t="n">
-        <v>1204.403432874438</v>
+        <v>1798.235250391764</v>
       </c>
       <c r="M44" t="n">
-        <v>1730.00823807008</v>
+        <v>2323.840055587406</v>
       </c>
       <c r="N44" t="n">
-        <v>2268.731686895527</v>
+        <v>2862.563504412853</v>
       </c>
       <c r="O44" t="n">
-        <v>2764.097701975475</v>
+        <v>3357.9295194928</v>
       </c>
       <c r="P44" t="n">
-        <v>3470.960855379216</v>
+        <v>3746.211951806774</v>
       </c>
       <c r="Q44" t="n">
-        <v>3924.563885784985</v>
+        <v>3989.623141459238</v>
       </c>
       <c r="R44" t="n">
         <v>4045.804356784974</v>
       </c>
       <c r="S44" t="n">
-        <v>3982.848216562598</v>
+        <v>3982.848216562597</v>
       </c>
       <c r="T44" t="n">
         <v>3825.052995214864</v>
@@ -7691,7 +7691,7 @@
         <v>2707.758180124749</v>
       </c>
       <c r="Y44" t="n">
-        <v>2366.003010012944</v>
+        <v>2366.003010012945</v>
       </c>
     </row>
     <row r="45">
@@ -7740,13 +7740,13 @@
         <v>1676.525311624794</v>
       </c>
       <c r="O45" t="n">
-        <v>2081.739548826538</v>
+        <v>2110.309762265828</v>
       </c>
       <c r="P45" t="n">
-        <v>2387.62663225586</v>
+        <v>2416.19684569515</v>
       </c>
       <c r="Q45" t="n">
-        <v>2542.184850424452</v>
+        <v>2570.755063863742</v>
       </c>
       <c r="R45" t="n">
         <v>2570.755063863742</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.1542365433634</v>
+        <v>768.1542365433629</v>
       </c>
       <c r="C46" t="n">
-        <v>647.6022154794636</v>
+        <v>647.6022154794631</v>
       </c>
       <c r="D46" t="n">
-        <v>545.869737931135</v>
+        <v>545.8697379311345</v>
       </c>
       <c r="E46" t="n">
-        <v>446.3408062127489</v>
+        <v>446.3408062127485</v>
       </c>
       <c r="F46" t="n">
-        <v>347.8350205788457</v>
+        <v>347.8350205788452</v>
       </c>
       <c r="G46" t="n">
-        <v>228.4956840730153</v>
+        <v>228.4956840730149</v>
       </c>
       <c r="H46" t="n">
         <v>130.4789574623698</v>
@@ -7804,52 +7804,52 @@
         <v>80.91608713569947</v>
       </c>
       <c r="J46" t="n">
-        <v>172.0283209136816</v>
+        <v>172.0283209136809</v>
       </c>
       <c r="K46" t="n">
-        <v>421.0840721851851</v>
+        <v>421.0840721851844</v>
       </c>
       <c r="L46" t="n">
-        <v>782.0544793376617</v>
+        <v>782.0544793376611</v>
       </c>
       <c r="M46" t="n">
-        <v>1170.458472169178</v>
+        <v>1170.458472169177</v>
       </c>
       <c r="N46" t="n">
-        <v>1556.189275526048</v>
+        <v>1556.189275526047</v>
       </c>
       <c r="O46" t="n">
-        <v>1900.077864642504</v>
+        <v>1900.077864642503</v>
       </c>
       <c r="P46" t="n">
-        <v>2177.657467019336</v>
+        <v>2177.657467019335</v>
       </c>
       <c r="Q46" t="n">
-        <v>2300.993370632404</v>
+        <v>2300.993370632403</v>
       </c>
       <c r="R46" t="n">
-        <v>2258.618048085068</v>
+        <v>2258.618048085066</v>
       </c>
       <c r="S46" t="n">
-        <v>2114.956247918496</v>
+        <v>2114.956247918494</v>
       </c>
       <c r="T46" t="n">
-        <v>1941.48551235256</v>
+        <v>1941.485512352559</v>
       </c>
       <c r="U46" t="n">
-        <v>1700.765680337963</v>
+        <v>1700.765680337961</v>
       </c>
       <c r="V46" t="n">
-        <v>1494.465353996083</v>
+        <v>1494.465353996082</v>
       </c>
       <c r="W46" t="n">
-        <v>1253.432345823129</v>
+        <v>1253.432345823128</v>
       </c>
       <c r="X46" t="n">
-        <v>1073.826956789119</v>
+        <v>1073.826956789118</v>
       </c>
       <c r="Y46" t="n">
-        <v>901.418539509596</v>
+        <v>901.4185395095956</v>
       </c>
     </row>
   </sheetData>
@@ -7982,10 +7982,10 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N2" t="n">
         <v>268.9969405584315</v>
@@ -7994,7 +7994,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>269.2175241529953</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,10 +8064,10 @@
         <v>178.1382567417148</v>
       </c>
       <c r="M3" t="n">
-        <v>181.7179108838589</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8216,10 +8216,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
         <v>230.3462332272727</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M6" t="n">
         <v>180.1185623197441</v>
       </c>
       <c r="N6" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
@@ -8313,7 +8313,7 @@
         <v>173.5582843761708</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,19 +8456,19 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
-        <v>273.750943367713</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M8" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>268.9969405584315</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
@@ -8547,7 +8547,7 @@
         <v>182.180121406285</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q9" t="n">
         <v>179.5656510478621</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>128.3851818425867</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.3851818425866</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>5.490631560732766</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>320.8365926131659</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>122.0204975754802</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>28.85880145382826</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>28.85880145382828</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>165.7877952140751</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9173,19 +9173,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>161.5210787340695</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>28.85880145382748</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>28.85880145382828</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>211.3528751015885</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9416,10 +9416,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>320.8365926131659</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9486,10 +9486,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>28.85880145382822</v>
       </c>
       <c r="N21" t="n">
-        <v>28.85880145382828</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9638,19 +9638,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>26.15799119651183</v>
+        <v>387.1644370553831</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>28.85880145382851</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>30.51657663960732</v>
+        <v>1.657775185779059</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,19 +9881,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>318.4510848252946</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>118.3027032462384</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>28.85880145382822</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>30.51657663960732</v>
+        <v>1.65777518577903</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,16 +10118,16 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>330.6176939061421</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>318.4510848252942</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>28.85880145382826</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>28.85880145382816</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>318.4510848252943</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>318.4510848252942</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10595,13 +10595,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>318.4510848252946</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>318.4510848252938</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10680,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>28.85880145382845</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.85880145382822</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>1.65777518577903</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>211.3528751015886</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>122.0204975754802</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>28.85880145382825</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>30.51657663960732</v>
+        <v>1.65777518577903</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,10 +11063,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>211.3528751015878</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>181.2067885956021</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>28.85880145382828</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>30.51657663960732</v>
+        <v>1.65777518577903</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>168.1344996137575</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>181.2067885956026</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>28.85880145382816</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.51657663960732</v>
+        <v>1.65777518577903</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>100.9689090450132</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.082705318338</v>
       </c>
       <c r="H11" t="n">
-        <v>296.2563973803192</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.78309830338691</v>
+        <v>47.7830983033869</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>112.8560859017321</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>194.4148529760967</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0080503320927</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>6.510851434996771</v>
       </c>
       <c r="H13" t="n">
         <v>145.3970268884839</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.52397011385796</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>92.17897396269613</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>191.0274475752769</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.8574826379858</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2157769293808</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.806960487108681</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>295.0747776464138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>348.6665615855937</v>
+        <v>36.1308340467059</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.046263386139</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>89.85188956723009</v>
       </c>
       <c r="S16" t="n">
-        <v>166.7006667943043</v>
+        <v>167.9012245067931</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-1.325487995298902e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1119791.551793776</v>
+        <v>1119791.551793775</v>
       </c>
     </row>
     <row r="6">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>49798.46398217021</v>
+        <v>49798.4639821702</v>
       </c>
       <c r="F2" t="n">
-        <v>55260.34668445197</v>
+        <v>55260.346684452</v>
       </c>
       <c r="G2" t="n">
         <v>61578.13273982126</v>
@@ -26332,28 +26332,28 @@
         <v>61578.13273982125</v>
       </c>
       <c r="I2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="J2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982121</v>
+        <v>61578.13273982119</v>
       </c>
       <c r="N2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="O2" t="n">
+        <v>61578.1327398212</v>
+      </c>
+      <c r="P2" t="n">
         <v>61578.13273982124</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61578.13273982122</v>
-      </c>
-      <c r="P2" t="n">
-        <v>61578.13273982119</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>1065126.306349469</v>
       </c>
       <c r="F3" t="n">
-        <v>88335.22644493837</v>
+        <v>88335.22644493853</v>
       </c>
       <c r="G3" t="n">
         <v>38320.25619629365</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>10356.88390380379</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>38320.25619629365</v>
+        <v>38320.25619629361</v>
       </c>
       <c r="M3" t="n">
-        <v>185095.3097139483</v>
+        <v>185095.3097139482</v>
       </c>
       <c r="N3" t="n">
-        <v>56117.9362287752</v>
+        <v>56117.9362287754</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>392795.5642185675</v>
+        <v>392795.5642185676</v>
       </c>
       <c r="C4" t="n">
         <v>392795.5642185676</v>
@@ -26424,16 +26424,16 @@
         <v>392795.5642185676</v>
       </c>
       <c r="E4" t="n">
-        <v>8221.03529723489</v>
+        <v>8221.035297234892</v>
       </c>
       <c r="F4" t="n">
-        <v>22517.82182439808</v>
+        <v>22517.8218243981</v>
       </c>
       <c r="G4" t="n">
-        <v>70715.86778327725</v>
+        <v>70715.86778327728</v>
       </c>
       <c r="H4" t="n">
-        <v>70715.86778327727</v>
+        <v>70715.86778327728</v>
       </c>
       <c r="I4" t="n">
         <v>70715.86778327727</v>
@@ -26445,19 +26445,19 @@
         <v>70715.86778327727</v>
       </c>
       <c r="L4" t="n">
-        <v>70715.86778327725</v>
+        <v>70715.86778327724</v>
       </c>
       <c r="M4" t="n">
-        <v>70715.86778327727</v>
+        <v>70715.86778327724</v>
       </c>
       <c r="N4" t="n">
         <v>70715.86778327728</v>
       </c>
       <c r="O4" t="n">
-        <v>70715.86778327724</v>
+        <v>70715.86778327727</v>
       </c>
       <c r="P4" t="n">
-        <v>70715.86778327727</v>
+        <v>70715.86778327725</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>70449.84478294509</v>
+        <v>70449.84478294506</v>
       </c>
       <c r="F5" t="n">
-        <v>85006.07440486581</v>
+        <v>85006.07440486582</v>
       </c>
       <c r="G5" t="n">
-        <v>89033.00642757356</v>
+        <v>89033.00642757359</v>
       </c>
       <c r="H5" t="n">
-        <v>89033.00642757356</v>
+        <v>89033.00642757359</v>
       </c>
       <c r="I5" t="n">
         <v>89033.00642757358</v>
@@ -26494,13 +26494,13 @@
         <v>89033.00642757358</v>
       </c>
       <c r="K5" t="n">
-        <v>89033.00642757358</v>
+        <v>89033.00642757356</v>
       </c>
       <c r="L5" t="n">
-        <v>89033.00642757358</v>
+        <v>89033.00642757356</v>
       </c>
       <c r="M5" t="n">
-        <v>89033.00642757358</v>
+        <v>89033.00642757356</v>
       </c>
       <c r="N5" t="n">
         <v>89033.00642757359</v>
@@ -26525,22 +26525,22 @@
         <v>-367251.7311980262</v>
       </c>
       <c r="D6" t="n">
-        <v>-367251.7311980262</v>
+        <v>-367251.7311980263</v>
       </c>
       <c r="E6" t="n">
-        <v>-1093998.722447479</v>
+        <v>-1094391.378072734</v>
       </c>
       <c r="F6" t="n">
-        <v>-140598.7759897503</v>
+        <v>-140809.3688582628</v>
       </c>
       <c r="G6" t="n">
-        <v>-136490.9976673232</v>
+        <v>-136490.9976673233</v>
       </c>
       <c r="H6" t="n">
+        <v>-98170.74147102961</v>
+      </c>
+      <c r="I6" t="n">
         <v>-98170.74147102959</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-98170.74147102961</v>
       </c>
       <c r="J6" t="n">
         <v>-108527.6253748334</v>
@@ -26555,13 +26555,13 @@
         <v>-283266.0511849779</v>
       </c>
       <c r="N6" t="n">
-        <v>-154288.6776998048</v>
+        <v>-154288.677699805</v>
       </c>
       <c r="O6" t="n">
+        <v>-98170.74147102963</v>
+      </c>
+      <c r="P6" t="n">
         <v>-98170.74147102959</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-98170.74147102964</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>47.90032024536706</v>
       </c>
       <c r="K2" t="n">
+        <v>47.90032024536707</v>
+      </c>
+      <c r="L2" t="n">
+        <v>47.90032024536702</v>
+      </c>
+      <c r="M2" t="n">
+        <v>47.90032024536702</v>
+      </c>
+      <c r="N2" t="n">
+        <v>47.90032024536707</v>
+      </c>
+      <c r="O2" t="n">
         <v>47.90032024536706</v>
-      </c>
-      <c r="L2" t="n">
-        <v>47.90032024536706</v>
-      </c>
-      <c r="M2" t="n">
-        <v>47.90032024536706</v>
-      </c>
-      <c r="N2" t="n">
-        <v>47.90032024536706</v>
-      </c>
-      <c r="O2" t="n">
-        <v>47.90032024536703</v>
       </c>
       <c r="P2" t="n">
         <v>47.90032024536703</v>
@@ -26796,19 +26796,19 @@
         <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>782.3300195355886</v>
+        <v>782.3300195355882</v>
       </c>
       <c r="F4" t="n">
-        <v>1011.451089196243</v>
+        <v>1011.451089196244</v>
       </c>
       <c r="G4" t="n">
-        <v>1011.451089196243</v>
+        <v>1011.451089196244</v>
       </c>
       <c r="H4" t="n">
-        <v>1011.451089196243</v>
+        <v>1011.451089196244</v>
       </c>
       <c r="I4" t="n">
-        <v>1011.451089196243</v>
+        <v>1011.451089196244</v>
       </c>
       <c r="J4" t="n">
         <v>1011.451089196243</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536701</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>742.746142573748</v>
+        <v>742.7461425737476</v>
       </c>
       <c r="F4" t="n">
-        <v>229.1210696606547</v>
+        <v>229.1210696606553</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>39.58387696184047</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>742.746142573748</v>
+        <v>742.7461425737476</v>
       </c>
       <c r="N4" t="n">
-        <v>229.1210696606548</v>
+        <v>229.1210696606555</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>742.746142573748</v>
+        <v>742.7461425737476</v>
       </c>
       <c r="N4" t="n">
-        <v>229.1210696606547</v>
+        <v>229.1210696606553</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F2" t="n">
-        <v>369.669416036174</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,10 +27397,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,16 +27421,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>203.5331082512772</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C3" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,10 +27473,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>72.65156727465587</v>
+        <v>78.11655673476514</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,16 +27515,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y3" t="n">
-        <v>171.5638082755731</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27585,7 +27585,7 @@
         <v>137.7095144153289</v>
       </c>
       <c r="S4" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>334.9423078071816</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27664,7 +27664,7 @@
         <v>110.2852409793091</v>
       </c>
       <c r="S5" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27673,10 +27673,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>297.4216745063089</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27710,10 +27710,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>78.11655673476514</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,13 +27749,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W6" t="n">
-        <v>217.5760956591883</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>166.1891082416369</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>142.6763243365123</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27828,7 +27828,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>261.7485325943754</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>334.9423078071816</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>369.669416036174</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27907,13 +27907,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>132.414296148136</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,16 +27941,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G9" t="n">
-        <v>103.2246296614793</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.2614834198218</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>246.9391213747504</v>
+        <v>261.9525015744755</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
     <row r="11">
@@ -29056,7 +29056,7 @@
         <v>47.90032024536706</v>
       </c>
       <c r="I23" t="n">
-        <v>43.33496992146235</v>
+        <v>43.3349699214624</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>47.90032024536706</v>
       </c>
       <c r="W23" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536606</v>
       </c>
       <c r="X23" t="n">
         <v>47.90032024536706</v>
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="C29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="D29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="E29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="F29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="G29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="H29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="I29" t="n">
         <v>43.33496992146235</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="T29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="U29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="V29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="W29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="X29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="C31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="D31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="E31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="F31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="G31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="H31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="I31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="J31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="K31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="L31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="M31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="N31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="O31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="P31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="R31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="S31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="T31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="U31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="V31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="W31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="X31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="C32" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="D32" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="E32" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="F32" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="G32" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="H32" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="I32" t="n">
         <v>43.33496992146235</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="T32" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="U32" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="V32" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="W32" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="X32" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="C34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="D34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="E34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="F34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="G34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="H34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="I34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="J34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="K34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="L34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="M34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="N34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="O34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="P34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="R34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="S34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="T34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="U34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="V34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="W34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="X34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="C35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="D35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="E35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="F35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="G35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="H35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="I35" t="n">
         <v>43.33496992146235</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="T35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="U35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="V35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="W35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="X35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="C37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="D37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="E37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="F37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="G37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="H37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="I37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="J37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="K37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536765</v>
       </c>
       <c r="L37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="M37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="N37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="O37" t="n">
-        <v>47.90032024536691</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="P37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="R37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="S37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="T37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="U37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="V37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="W37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="X37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536702</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="C38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="D38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="E38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="F38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="G38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="H38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="I38" t="n">
         <v>43.33496992146235</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="T38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="U38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="V38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="W38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="X38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="C40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="D40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="E40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="F40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="G40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="H40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="I40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="J40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="K40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="L40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="M40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="N40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="O40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="P40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="R40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="S40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="T40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="U40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="V40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="W40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="X40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536707</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="C41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="D41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="E41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="F41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="G41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="H41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="I41" t="n">
         <v>43.33496992146235</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="T41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="U41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="V41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="W41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="X41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="C43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="D43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="E43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="F43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="G43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="H43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="I43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="J43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="K43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536711</v>
       </c>
       <c r="L43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="M43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="N43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="O43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="P43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="R43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="S43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="T43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="U43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="V43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="W43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="X43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536706</v>
       </c>
     </row>
     <row r="44">
@@ -30876,7 +30876,7 @@
         <v>47.90032024536703</v>
       </c>
       <c r="J46" t="n">
-        <v>47.90032024536767</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="K46" t="n">
         <v>47.90032024536703</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.335410664650629</v>
+        <v>4.335410664650628</v>
       </c>
       <c r="H23" t="n">
-        <v>44.40002446935327</v>
+        <v>44.40002446935326</v>
       </c>
       <c r="I23" t="n">
-        <v>167.1409196489436</v>
+        <v>167.1409196489435</v>
       </c>
       <c r="J23" t="n">
-        <v>367.9625608988917</v>
+        <v>367.9625608988916</v>
       </c>
       <c r="K23" t="n">
-        <v>551.480494333553</v>
+        <v>551.4804943335529</v>
       </c>
       <c r="L23" t="n">
-        <v>684.1603184618548</v>
+        <v>684.1603184618547</v>
       </c>
       <c r="M23" t="n">
-        <v>761.2601778693354</v>
+        <v>761.2601778693353</v>
       </c>
       <c r="N23" t="n">
-        <v>773.5781634202741</v>
+        <v>773.5781634202739</v>
       </c>
       <c r="O23" t="n">
-        <v>730.4679236236543</v>
+        <v>730.4679236236542</v>
       </c>
       <c r="P23" t="n">
-        <v>623.4374728400918</v>
+        <v>623.4374728400917</v>
       </c>
       <c r="Q23" t="n">
-        <v>468.175578412291</v>
+        <v>468.1755784122909</v>
       </c>
       <c r="R23" t="n">
         <v>272.3342401633603</v>
       </c>
       <c r="S23" t="n">
-        <v>98.79317052072632</v>
+        <v>98.79317052072629</v>
       </c>
       <c r="T23" t="n">
         <v>18.97826018450814</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3468328531720503</v>
+        <v>0.3468328531720502</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,28 +32783,28 @@
         <v>22.40292785882757</v>
       </c>
       <c r="I24" t="n">
-        <v>79.86511520971683</v>
+        <v>79.86511520971681</v>
       </c>
       <c r="J24" t="n">
         <v>219.155980475479</v>
       </c>
       <c r="K24" t="n">
-        <v>374.5724772835853</v>
+        <v>374.5724772835852</v>
       </c>
       <c r="L24" t="n">
-        <v>503.6589208225517</v>
+        <v>503.6589208225516</v>
       </c>
       <c r="M24" t="n">
-        <v>587.7462045433554</v>
+        <v>587.7462045433552</v>
       </c>
       <c r="N24" t="n">
-        <v>603.3020976842035</v>
+        <v>603.3020976842034</v>
       </c>
       <c r="O24" t="n">
-        <v>551.9035547492367</v>
+        <v>551.9035547492366</v>
       </c>
       <c r="P24" t="n">
-        <v>442.9512593631403</v>
+        <v>442.9512593631402</v>
       </c>
       <c r="Q24" t="n">
         <v>296.1011863775284</v>
@@ -32813,10 +32813,10 @@
         <v>144.0217287781849</v>
       </c>
       <c r="S24" t="n">
-        <v>43.08646661314019</v>
+        <v>43.08646661314018</v>
       </c>
       <c r="T24" t="n">
-        <v>9.349814124551557</v>
+        <v>9.349814124551555</v>
       </c>
       <c r="U24" t="n">
         <v>0.1526085004007328</v>
@@ -32862,7 +32862,7 @@
         <v>17.29029291753352</v>
       </c>
       <c r="I25" t="n">
-        <v>58.4829130584876</v>
+        <v>58.48291305848759</v>
       </c>
       <c r="J25" t="n">
         <v>137.4914192430042</v>
@@ -32874,28 +32874,28 @@
         <v>289.1262273756064</v>
       </c>
       <c r="M25" t="n">
-        <v>304.8430682791721</v>
+        <v>304.843068279172</v>
       </c>
       <c r="N25" t="n">
-        <v>297.5945814732534</v>
+        <v>297.5945814732533</v>
       </c>
       <c r="O25" t="n">
-        <v>274.8767630693366</v>
+        <v>274.8767630693365</v>
       </c>
       <c r="P25" t="n">
-        <v>235.2045572340141</v>
+        <v>235.204557234014</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.8434438276086</v>
+        <v>162.8434438276085</v>
       </c>
       <c r="R25" t="n">
-        <v>87.4415018099394</v>
+        <v>87.44150180993937</v>
       </c>
       <c r="S25" t="n">
         <v>33.89109562669911</v>
       </c>
       <c r="T25" t="n">
-        <v>8.309240972638802</v>
+        <v>8.309240972638801</v>
       </c>
       <c r="U25" t="n">
         <v>0.1060754166719848</v>
@@ -34702,10 +34702,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="M2" t="n">
-        <v>37.98452839772582</v>
       </c>
       <c r="N2" t="n">
         <v>39.58387696184059</v>
@@ -34714,7 +34714,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,10 +34784,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="M3" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="N3" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="N3" t="n">
-        <v>37.98452839772582</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M6" t="n">
         <v>37.98452839772582</v>
       </c>
       <c r="N6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,19 +35176,19 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,7 +35267,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="P9" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q9" t="n">
         <v>39.58387696184059</v>
@@ -35504,10 +35504,10 @@
         <v>394.6194775997826</v>
       </c>
       <c r="P12" t="n">
-        <v>297.1885713008349</v>
+        <v>425.5737531434216</v>
       </c>
       <c r="Q12" t="n">
-        <v>276.6244407053952</v>
+        <v>148.2392588628086</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>356.0132715442792</v>
+        <v>186.9166563722054</v>
       </c>
       <c r="K14" t="n">
-        <v>331.3906432885724</v>
+        <v>655.5360558597372</v>
       </c>
       <c r="L14" t="n">
         <v>448.3939034918675</v>
@@ -35662,13 +35662,13 @@
         <v>500.3697122019676</v>
       </c>
       <c r="P14" t="n">
-        <v>713.0410696979882</v>
+        <v>714.003185256305</v>
       </c>
       <c r="Q14" t="n">
-        <v>458.1848791977462</v>
+        <v>367.8903861133217</v>
       </c>
       <c r="R14" t="n">
-        <v>122.4651222222107</v>
+        <v>56.74870234922821</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>121.1771552626406</v>
+        <v>92.3183538088123</v>
       </c>
       <c r="K15" t="n">
         <v>236.7310383092263</v>
       </c>
       <c r="L15" t="n">
-        <v>365.1045410426776</v>
+        <v>393.9633424965058</v>
       </c>
       <c r="M15" t="n">
         <v>445.612170621337</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>352.7044515862805</v>
+        <v>356.0132715442792</v>
       </c>
       <c r="K17" t="n">
-        <v>655.5360558597372</v>
+        <v>331.3906432885724</v>
       </c>
       <c r="L17" t="n">
         <v>448.3939034918675</v>
@@ -35893,19 +35893,19 @@
         <v>530.9139446420627</v>
       </c>
       <c r="N17" t="n">
-        <v>544.1650998236832</v>
+        <v>981.5120242356674</v>
       </c>
       <c r="O17" t="n">
-        <v>500.3697122019676</v>
+        <v>661.8907909360371</v>
       </c>
       <c r="P17" t="n">
         <v>392.2044770848223</v>
       </c>
       <c r="Q17" t="n">
-        <v>458.1848791977462</v>
+        <v>245.8698885378415</v>
       </c>
       <c r="R17" t="n">
-        <v>122.4651222222107</v>
+        <v>56.74870234922821</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>121.1771552626398</v>
+        <v>92.3183538088123</v>
       </c>
       <c r="K18" t="n">
         <v>236.7310383092263</v>
@@ -35972,7 +35972,7 @@
         <v>445.612170621337</v>
       </c>
       <c r="N18" t="n">
-        <v>471.9603856008703</v>
+        <v>500.8191870546985</v>
       </c>
       <c r="O18" t="n">
         <v>409.3073103047923</v>
@@ -36045,7 +36045,7 @@
         <v>251.5714659308116</v>
       </c>
       <c r="L19" t="n">
-        <v>364.6165728812896</v>
+        <v>364.6165728812897</v>
       </c>
       <c r="M19" t="n">
         <v>392.3272654863797</v>
@@ -36121,7 +36121,7 @@
         <v>356.0132715442792</v>
       </c>
       <c r="K20" t="n">
-        <v>331.3906432885724</v>
+        <v>542.7435183901609</v>
       </c>
       <c r="L20" t="n">
         <v>448.3939034918675</v>
@@ -36136,10 +36136,10 @@
         <v>500.3697122019676</v>
       </c>
       <c r="P20" t="n">
-        <v>713.0410696979882</v>
+        <v>714.003185256305</v>
       </c>
       <c r="Q20" t="n">
-        <v>458.1848791977462</v>
+        <v>245.8698885378415</v>
       </c>
       <c r="R20" t="n">
         <v>122.4651222222107</v>
@@ -36206,10 +36206,10 @@
         <v>365.1045410426776</v>
       </c>
       <c r="M21" t="n">
-        <v>445.612170621337</v>
+        <v>474.4709720751653</v>
       </c>
       <c r="N21" t="n">
-        <v>500.8191870546985</v>
+        <v>471.9603856008703</v>
       </c>
       <c r="O21" t="n">
         <v>409.3073103047923</v>
@@ -36282,7 +36282,7 @@
         <v>251.5714659308116</v>
       </c>
       <c r="L22" t="n">
-        <v>364.6165728812896</v>
+        <v>364.6165728812897</v>
       </c>
       <c r="M22" t="n">
         <v>392.3272654863797</v>
@@ -36358,28 +36358,28 @@
         <v>186.9166563722054</v>
       </c>
       <c r="K23" t="n">
-        <v>655.5360558597372</v>
+        <v>331.3906432885723</v>
       </c>
       <c r="L23" t="n">
-        <v>866.055118042318</v>
+        <v>448.3939034918674</v>
       </c>
       <c r="M23" t="n">
-        <v>530.9139446420627</v>
+        <v>530.9139446420626</v>
       </c>
       <c r="N23" t="n">
-        <v>570.3230910201951</v>
+        <v>931.3295368790662</v>
       </c>
       <c r="O23" t="n">
-        <v>500.3697122019676</v>
+        <v>881.1698934647128</v>
       </c>
       <c r="P23" t="n">
-        <v>392.2044770848223</v>
+        <v>392.2044770848221</v>
       </c>
       <c r="Q23" t="n">
-        <v>245.8698885378415</v>
+        <v>245.8698885378414</v>
       </c>
       <c r="R23" t="n">
-        <v>56.74870234922821</v>
+        <v>56.74870234922815</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>92.3183538088123</v>
+        <v>121.1771552626408</v>
       </c>
       <c r="K24" t="n">
-        <v>236.7310383092263</v>
+        <v>236.7310383092262</v>
       </c>
       <c r="L24" t="n">
-        <v>365.1045410426776</v>
+        <v>365.1045410426775</v>
       </c>
       <c r="M24" t="n">
-        <v>445.612170621337</v>
+        <v>445.6121706213369</v>
       </c>
       <c r="N24" t="n">
-        <v>471.9603856008703</v>
+        <v>471.9603856008702</v>
       </c>
       <c r="O24" t="n">
-        <v>409.3073103047923</v>
+        <v>409.3073103047922</v>
       </c>
       <c r="P24" t="n">
         <v>308.97685194881</v>
@@ -36458,7 +36458,7 @@
         <v>156.1194122915069</v>
       </c>
       <c r="R24" t="n">
-        <v>28.85880145382828</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.03255937169848</v>
+        <v>92.03255937169845</v>
       </c>
       <c r="K25" t="n">
         <v>251.5714659308116</v>
@@ -36525,16 +36525,16 @@
         <v>392.3272654863797</v>
       </c>
       <c r="N25" t="n">
-        <v>389.627074097849</v>
+        <v>389.6270740978489</v>
       </c>
       <c r="O25" t="n">
         <v>347.3622112287433</v>
       </c>
       <c r="P25" t="n">
-        <v>280.3834367442746</v>
+        <v>280.3834367442745</v>
       </c>
       <c r="Q25" t="n">
-        <v>124.5817208212813</v>
+        <v>124.5817208212812</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,19 +36601,19 @@
         <v>448.3939034918675</v>
       </c>
       <c r="M26" t="n">
-        <v>530.9139446420627</v>
+        <v>980.4274781348952</v>
       </c>
       <c r="N26" t="n">
-        <v>981.5120242356674</v>
+        <v>862.6161846489779</v>
       </c>
       <c r="O26" t="n">
         <v>500.3697122019676</v>
       </c>
       <c r="P26" t="n">
-        <v>510.5071803310606</v>
+        <v>392.2044770848223</v>
       </c>
       <c r="Q26" t="n">
-        <v>458.1848791977462</v>
+        <v>245.8698885378415</v>
       </c>
       <c r="R26" t="n">
         <v>56.74870234922821</v>
@@ -36680,7 +36680,7 @@
         <v>365.1045410426776</v>
       </c>
       <c r="M27" t="n">
-        <v>445.612170621337</v>
+        <v>474.4709720751653</v>
       </c>
       <c r="N27" t="n">
         <v>471.9603856008703</v>
@@ -36695,7 +36695,7 @@
         <v>156.1194122915069</v>
       </c>
       <c r="R27" t="n">
-        <v>28.85880145382828</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>364.6165728812896</v>
       </c>
       <c r="M28" t="n">
-        <v>392.3272654863797</v>
+        <v>392.3272654863798</v>
       </c>
       <c r="N28" t="n">
         <v>389.627074097849</v>
@@ -36838,16 +36838,16 @@
         <v>448.3939034918675</v>
       </c>
       <c r="M29" t="n">
-        <v>980.4274781348952</v>
+        <v>861.5316385482048</v>
       </c>
       <c r="N29" t="n">
-        <v>544.1650998236832</v>
+        <v>981.5120242356674</v>
       </c>
       <c r="O29" t="n">
         <v>500.3697122019676</v>
       </c>
       <c r="P29" t="n">
-        <v>710.6555619101165</v>
+        <v>392.2044770848223</v>
       </c>
       <c r="Q29" t="n">
         <v>245.8698885378415</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>121.1771552626406</v>
+        <v>92.3183538088123</v>
       </c>
       <c r="K30" t="n">
         <v>236.7310383092263</v>
@@ -36923,7 +36923,7 @@
         <v>471.9603856008703</v>
       </c>
       <c r="O30" t="n">
-        <v>409.3073103047923</v>
+        <v>438.1661117586204</v>
       </c>
       <c r="P30" t="n">
         <v>308.97685194881</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.03255937169848</v>
+        <v>92.0325593716985</v>
       </c>
       <c r="K31" t="n">
-        <v>251.5714659308116</v>
+        <v>251.5714659308117</v>
       </c>
       <c r="L31" t="n">
         <v>364.6165728812896</v>
       </c>
       <c r="M31" t="n">
-        <v>392.3272654863797</v>
+        <v>392.3272654863798</v>
       </c>
       <c r="N31" t="n">
         <v>389.627074097849</v>
@@ -37069,7 +37069,7 @@
         <v>186.9166563722054</v>
       </c>
       <c r="K32" t="n">
-        <v>331.3906432885724</v>
+        <v>649.8417281138668</v>
       </c>
       <c r="L32" t="n">
         <v>448.3939034918675</v>
@@ -37084,7 +37084,7 @@
         <v>500.3697122019676</v>
       </c>
       <c r="P32" t="n">
-        <v>710.6555619101165</v>
+        <v>392.2044770848223</v>
       </c>
       <c r="Q32" t="n">
         <v>245.8698885378415</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.03255937169848</v>
+        <v>92.03255937169845</v>
       </c>
       <c r="K34" t="n">
         <v>251.5714659308116</v>
@@ -37236,16 +37236,16 @@
         <v>392.3272654863797</v>
       </c>
       <c r="N34" t="n">
-        <v>389.627074097849</v>
+        <v>389.6270740978489</v>
       </c>
       <c r="O34" t="n">
         <v>347.3622112287433</v>
       </c>
       <c r="P34" t="n">
-        <v>280.3834367442746</v>
+        <v>280.3834367442745</v>
       </c>
       <c r="Q34" t="n">
-        <v>124.5817208212813</v>
+        <v>124.5817208212812</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,13 +37315,13 @@
         <v>980.4274781348952</v>
       </c>
       <c r="N35" t="n">
-        <v>862.6161846489779</v>
+        <v>544.1650998236832</v>
       </c>
       <c r="O35" t="n">
         <v>500.3697122019676</v>
       </c>
       <c r="P35" t="n">
-        <v>392.2044770848223</v>
+        <v>710.655561910116</v>
       </c>
       <c r="Q35" t="n">
         <v>245.8698885378415</v>
@@ -37400,10 +37400,10 @@
         <v>409.3073103047923</v>
       </c>
       <c r="P36" t="n">
-        <v>308.97685194881</v>
+        <v>337.8356534026385</v>
       </c>
       <c r="Q36" t="n">
-        <v>184.9782137453352</v>
+        <v>156.1194122915069</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.03255937169848</v>
+        <v>92.03255937169845</v>
       </c>
       <c r="K37" t="n">
-        <v>251.5714659308116</v>
+        <v>251.5714659308122</v>
       </c>
       <c r="L37" t="n">
         <v>364.6165728812896</v>
@@ -37476,13 +37476,13 @@
         <v>389.627074097849</v>
       </c>
       <c r="O37" t="n">
-        <v>347.3622112287431</v>
+        <v>347.3622112287433</v>
       </c>
       <c r="P37" t="n">
-        <v>280.3834367442746</v>
+        <v>280.3834367442745</v>
       </c>
       <c r="Q37" t="n">
-        <v>124.5817208212813</v>
+        <v>124.5817208212812</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>186.9166563722054</v>
+        <v>356.0132715442792</v>
       </c>
       <c r="K38" t="n">
-        <v>655.5360558597372</v>
+        <v>331.3906432885724</v>
       </c>
       <c r="L38" t="n">
         <v>448.3939034918675</v>
@@ -37555,16 +37555,16 @@
         <v>544.1650998236832</v>
       </c>
       <c r="O38" t="n">
-        <v>500.3697122019676</v>
+        <v>711.7225873035561</v>
       </c>
       <c r="P38" t="n">
         <v>714.003185256305</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.8903861133217</v>
+        <v>245.8698885378415</v>
       </c>
       <c r="R38" t="n">
-        <v>56.74870234922821</v>
+        <v>122.4651222222107</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>92.3183538088123</v>
+        <v>121.1771552626406</v>
       </c>
       <c r="K39" t="n">
         <v>236.7310383092263</v>
@@ -37643,7 +37643,7 @@
         <v>156.1194122915069</v>
       </c>
       <c r="R39" t="n">
-        <v>28.85880145382828</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.03255937169848</v>
+        <v>92.0325593716985</v>
       </c>
       <c r="K40" t="n">
-        <v>251.5714659308116</v>
+        <v>251.5714659308117</v>
       </c>
       <c r="L40" t="n">
         <v>364.6165728812896</v>
       </c>
       <c r="M40" t="n">
-        <v>392.3272654863797</v>
+        <v>392.3272654863798</v>
       </c>
       <c r="N40" t="n">
         <v>389.627074097849</v>
@@ -37783,10 +37783,10 @@
         <v>331.3906432885724</v>
       </c>
       <c r="L41" t="n">
-        <v>448.3939034918675</v>
+        <v>866.055118042318</v>
       </c>
       <c r="M41" t="n">
-        <v>742.2668197436504</v>
+        <v>530.9139446420627</v>
       </c>
       <c r="N41" t="n">
         <v>544.1650998236832</v>
@@ -37795,13 +37795,13 @@
         <v>500.3697122019676</v>
       </c>
       <c r="P41" t="n">
-        <v>714.003185256305</v>
+        <v>573.4112656804243</v>
       </c>
       <c r="Q41" t="n">
         <v>245.8698885378415</v>
       </c>
       <c r="R41" t="n">
-        <v>122.4651222222107</v>
+        <v>56.74870234922821</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>236.7310383092263</v>
       </c>
       <c r="L42" t="n">
-        <v>365.1045410426776</v>
+        <v>393.9633424965058</v>
       </c>
       <c r="M42" t="n">
         <v>445.612170621337</v>
@@ -37880,7 +37880,7 @@
         <v>156.1194122915069</v>
       </c>
       <c r="R42" t="n">
-        <v>28.85880145382828</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.03255937169845</v>
+        <v>92.03255937169848</v>
       </c>
       <c r="K43" t="n">
-        <v>251.5714659308116</v>
+        <v>251.5714659308117</v>
       </c>
       <c r="L43" t="n">
         <v>364.6165728812896</v>
@@ -37956,7 +37956,7 @@
         <v>280.3834367442746</v>
       </c>
       <c r="Q43" t="n">
-        <v>124.5817208212812</v>
+        <v>124.5817208212813</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>355.0511559859629</v>
+        <v>356.0132715442792</v>
       </c>
       <c r="K44" t="n">
-        <v>331.3906432885724</v>
+        <v>512.5974318841751</v>
       </c>
       <c r="L44" t="n">
-        <v>448.3939034918675</v>
+        <v>866.055118042318</v>
       </c>
       <c r="M44" t="n">
         <v>530.9139446420627</v>
@@ -38032,13 +38032,13 @@
         <v>500.3697122019676</v>
       </c>
       <c r="P44" t="n">
-        <v>714.003185256305</v>
+        <v>392.2044770848223</v>
       </c>
       <c r="Q44" t="n">
-        <v>458.1848791977462</v>
+        <v>245.8698885378415</v>
       </c>
       <c r="R44" t="n">
-        <v>122.4651222222107</v>
+        <v>56.74870234922821</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38108,7 +38108,7 @@
         <v>471.9603856008703</v>
       </c>
       <c r="O45" t="n">
-        <v>409.3073103047923</v>
+        <v>438.1661117586204</v>
       </c>
       <c r="P45" t="n">
         <v>308.97685194881</v>
@@ -38117,7 +38117,7 @@
         <v>156.1194122915069</v>
       </c>
       <c r="R45" t="n">
-        <v>28.85880145382828</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.03255937169909</v>
+        <v>92.03255937169845</v>
       </c>
       <c r="K46" t="n">
         <v>251.5714659308116</v>
